--- a/data/lab2-monte-carlo-table-for-students-year-2021.xlsx
+++ b/data/lab2-monte-carlo-table-for-students-year-2021.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -536,7 +536,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -855,10 +855,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -905,7 +905,7 @@
         <v>80</v>
       </c>
       <c r="G2" t="n">
-        <v>66.4749</v>
+        <v>66.2381</v>
       </c>
     </row>
     <row r="3">
@@ -928,7 +928,7 @@
         <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>76.0911</v>
+        <v>76.1194</v>
       </c>
     </row>
     <row r="4">
@@ -951,7 +951,7 @@
         <v>120</v>
       </c>
       <c r="G4" t="n">
-        <v>89.8905</v>
+        <v>88.4429</v>
       </c>
     </row>
     <row r="5">
@@ -974,7 +974,7 @@
         <v>140</v>
       </c>
       <c r="G5" t="n">
-        <v>102.1186</v>
+        <v>100.9206</v>
       </c>
     </row>
     <row r="6">
@@ -997,7 +997,7 @@
         <v>160</v>
       </c>
       <c r="G6" t="n">
-        <v>112.0165</v>
+        <v>113.2267</v>
       </c>
     </row>
     <row r="7">
@@ -1020,7 +1020,7 @@
         <v>180</v>
       </c>
       <c r="G7" t="n">
-        <v>123.1325</v>
+        <v>124.7207</v>
       </c>
     </row>
     <row r="8">
@@ -1043,7 +1043,7 @@
         <v>200</v>
       </c>
       <c r="G8" t="n">
-        <v>137.4254</v>
+        <v>135.894</v>
       </c>
     </row>
     <row r="9">
@@ -1066,7 +1066,7 @@
         <v>220</v>
       </c>
       <c r="G9" t="n">
-        <v>148.9858</v>
+        <v>149.7494</v>
       </c>
     </row>
     <row r="10">
@@ -1089,7 +1089,7 @@
         <v>240</v>
       </c>
       <c r="G10" t="n">
-        <v>161.3844</v>
+        <v>161.3426</v>
       </c>
     </row>
     <row r="11">
@@ -1112,7 +1112,7 @@
         <v>260</v>
       </c>
       <c r="G11" t="n">
-        <v>173.3678</v>
+        <v>170.9663</v>
       </c>
     </row>
     <row r="12">
@@ -1135,7 +1135,7 @@
         <v>80</v>
       </c>
       <c r="G12" t="n">
-        <v>65.5104</v>
+        <v>64.1373</v>
       </c>
     </row>
     <row r="13">
@@ -1158,7 +1158,7 @@
         <v>100</v>
       </c>
       <c r="G13" t="n">
-        <v>77.1539</v>
+        <v>76.617</v>
       </c>
     </row>
     <row r="14">
@@ -1181,7 +1181,7 @@
         <v>120</v>
       </c>
       <c r="G14" t="n">
-        <v>88.2397</v>
+        <v>89.6421</v>
       </c>
     </row>
     <row r="15">
@@ -1204,7 +1204,7 @@
         <v>140</v>
       </c>
       <c r="G15" t="n">
-        <v>100.4406</v>
+        <v>101.9894</v>
       </c>
     </row>
     <row r="16">
@@ -1227,7 +1227,7 @@
         <v>160</v>
       </c>
       <c r="G16" t="n">
-        <v>114.3337</v>
+        <v>111.9173</v>
       </c>
     </row>
     <row r="17">
@@ -1250,7 +1250,7 @@
         <v>180</v>
       </c>
       <c r="G17" t="n">
-        <v>125.7636</v>
+        <v>124.7421</v>
       </c>
     </row>
     <row r="18">
@@ -1273,7 +1273,7 @@
         <v>200</v>
       </c>
       <c r="G18" t="n">
-        <v>136.9063</v>
+        <v>136.7682</v>
       </c>
     </row>
     <row r="19">
@@ -1296,7 +1296,7 @@
         <v>220</v>
       </c>
       <c r="G19" t="n">
-        <v>147.3536</v>
+        <v>149.9225</v>
       </c>
     </row>
     <row r="20">
@@ -1319,7 +1319,7 @@
         <v>240</v>
       </c>
       <c r="G20" t="n">
-        <v>160.7583</v>
+        <v>160.9917</v>
       </c>
     </row>
     <row r="21">
@@ -1342,7 +1342,7 @@
         <v>260</v>
       </c>
       <c r="G21" t="n">
-        <v>172.3428</v>
+        <v>173.9024</v>
       </c>
     </row>
     <row r="22">
@@ -1365,7 +1365,7 @@
         <v>80</v>
       </c>
       <c r="G22" t="n">
-        <v>62.4475</v>
+        <v>63.7803</v>
       </c>
     </row>
     <row r="23">
@@ -1388,7 +1388,7 @@
         <v>100</v>
       </c>
       <c r="G23" t="n">
-        <v>77.1741</v>
+        <v>76.169</v>
       </c>
     </row>
     <row r="24">
@@ -1411,7 +1411,7 @@
         <v>120</v>
       </c>
       <c r="G24" t="n">
-        <v>88.4623</v>
+        <v>90.5151</v>
       </c>
     </row>
     <row r="25">
@@ -1434,7 +1434,7 @@
         <v>140</v>
       </c>
       <c r="G25" t="n">
-        <v>101.9822</v>
+        <v>101.1325</v>
       </c>
     </row>
     <row r="26">
@@ -1457,7 +1457,7 @@
         <v>160</v>
       </c>
       <c r="G26" t="n">
-        <v>115.2061</v>
+        <v>113.9267</v>
       </c>
     </row>
     <row r="27">
@@ -1480,7 +1480,7 @@
         <v>180</v>
       </c>
       <c r="G27" t="n">
-        <v>125.3871</v>
+        <v>124.2309</v>
       </c>
     </row>
     <row r="28">
@@ -1503,7 +1503,7 @@
         <v>200</v>
       </c>
       <c r="G28" t="n">
-        <v>136.2389</v>
+        <v>137.1619</v>
       </c>
     </row>
     <row r="29">
@@ -1526,7 +1526,7 @@
         <v>220</v>
       </c>
       <c r="G29" t="n">
-        <v>150.2538</v>
+        <v>150.0848</v>
       </c>
     </row>
     <row r="30">
@@ -1549,7 +1549,7 @@
         <v>240</v>
       </c>
       <c r="G30" t="n">
-        <v>161.0092</v>
+        <v>160.4106</v>
       </c>
     </row>
     <row r="31">
@@ -1572,7 +1572,7 @@
         <v>260</v>
       </c>
       <c r="G31" t="n">
-        <v>174.1936</v>
+        <v>172.4272</v>
       </c>
     </row>
     <row r="32">
@@ -1595,7 +1595,7 @@
         <v>80</v>
       </c>
       <c r="G32" t="n">
-        <v>64.4219</v>
+        <v>64.8481</v>
       </c>
     </row>
     <row r="33">
@@ -1618,7 +1618,7 @@
         <v>100</v>
       </c>
       <c r="G33" t="n">
-        <v>75.9137</v>
+        <v>78.0439</v>
       </c>
     </row>
     <row r="34">
@@ -1641,7 +1641,7 @@
         <v>120</v>
       </c>
       <c r="G34" t="n">
-        <v>88.1153</v>
+        <v>87.4893</v>
       </c>
     </row>
     <row r="35">
@@ -1664,7 +1664,7 @@
         <v>140</v>
       </c>
       <c r="G35" t="n">
-        <v>101.5713</v>
+        <v>100.5716</v>
       </c>
     </row>
     <row r="36">
@@ -1687,7 +1687,7 @@
         <v>160</v>
       </c>
       <c r="G36" t="n">
-        <v>112.6777</v>
+        <v>111.595</v>
       </c>
     </row>
     <row r="37">
@@ -1710,7 +1710,7 @@
         <v>180</v>
       </c>
       <c r="G37" t="n">
-        <v>125.5881</v>
+        <v>126.6425</v>
       </c>
     </row>
     <row r="38">
@@ -1733,7 +1733,7 @@
         <v>200</v>
       </c>
       <c r="G38" t="n">
-        <v>137.6222</v>
+        <v>137.3701</v>
       </c>
     </row>
     <row r="39">
@@ -1756,7 +1756,7 @@
         <v>220</v>
       </c>
       <c r="G39" t="n">
-        <v>149.3298</v>
+        <v>149.0106</v>
       </c>
     </row>
     <row r="40">
@@ -1779,7 +1779,7 @@
         <v>240</v>
       </c>
       <c r="G40" t="n">
-        <v>160.1726</v>
+        <v>161.9115</v>
       </c>
     </row>
     <row r="41">
@@ -1802,7 +1802,7 @@
         <v>260</v>
       </c>
       <c r="G41" t="n">
-        <v>173.3373</v>
+        <v>171.0627</v>
       </c>
     </row>
     <row r="42">
@@ -1825,7 +1825,7 @@
         <v>80</v>
       </c>
       <c r="G42" t="n">
-        <v>66.3571</v>
+        <v>64.8388</v>
       </c>
     </row>
     <row r="43">
@@ -1848,7 +1848,7 @@
         <v>100</v>
       </c>
       <c r="G43" t="n">
-        <v>76.5714</v>
+        <v>77.7323</v>
       </c>
     </row>
     <row r="44">
@@ -1871,7 +1871,7 @@
         <v>120</v>
       </c>
       <c r="G44" t="n">
-        <v>89.9041</v>
+        <v>87.8241</v>
       </c>
     </row>
     <row r="45">
@@ -1894,7 +1894,7 @@
         <v>140</v>
       </c>
       <c r="G45" t="n">
-        <v>100.4839</v>
+        <v>101.3703</v>
       </c>
     </row>
     <row r="46">
@@ -1917,7 +1917,7 @@
         <v>160</v>
       </c>
       <c r="G46" t="n">
-        <v>113.651</v>
+        <v>112.4336</v>
       </c>
     </row>
     <row r="47">
@@ -1940,7 +1940,7 @@
         <v>180</v>
       </c>
       <c r="G47" t="n">
-        <v>125.3018</v>
+        <v>124.1332</v>
       </c>
     </row>
     <row r="48">
@@ -1963,7 +1963,7 @@
         <v>200</v>
       </c>
       <c r="G48" t="n">
-        <v>136.4963</v>
+        <v>136.6528</v>
       </c>
     </row>
     <row r="49">
@@ -1986,7 +1986,7 @@
         <v>220</v>
       </c>
       <c r="G49" t="n">
-        <v>146.7866</v>
+        <v>148.6844</v>
       </c>
     </row>
     <row r="50">
@@ -2009,7 +2009,7 @@
         <v>240</v>
       </c>
       <c r="G50" t="n">
-        <v>160.5176</v>
+        <v>160.2866</v>
       </c>
     </row>
     <row r="51">
@@ -2032,7 +2032,7 @@
         <v>260</v>
       </c>
       <c r="G51" t="n">
-        <v>172.9586</v>
+        <v>173.4689</v>
       </c>
     </row>
     <row r="52">
@@ -2055,7 +2055,7 @@
         <v>80</v>
       </c>
       <c r="G52" t="n">
-        <v>65.9625</v>
+        <v>64.1335</v>
       </c>
     </row>
     <row r="53">
@@ -2078,7 +2078,7 @@
         <v>100</v>
       </c>
       <c r="G53" t="n">
-        <v>76.932</v>
+        <v>76.464</v>
       </c>
     </row>
     <row r="54">
@@ -2101,7 +2101,7 @@
         <v>120</v>
       </c>
       <c r="G54" t="n">
-        <v>88.0215</v>
+        <v>88.9749</v>
       </c>
     </row>
     <row r="55">
@@ -2124,7 +2124,7 @@
         <v>140</v>
       </c>
       <c r="G55" t="n">
-        <v>101.0825</v>
+        <v>102.1306</v>
       </c>
     </row>
     <row r="56">
@@ -2147,7 +2147,7 @@
         <v>160</v>
       </c>
       <c r="G56" t="n">
-        <v>113.3196</v>
+        <v>113.8</v>
       </c>
     </row>
     <row r="57">
@@ -2170,7 +2170,7 @@
         <v>180</v>
       </c>
       <c r="G57" t="n">
-        <v>125.4522</v>
+        <v>125.1024</v>
       </c>
     </row>
     <row r="58">
@@ -2193,7 +2193,7 @@
         <v>200</v>
       </c>
       <c r="G58" t="n">
-        <v>138.6663</v>
+        <v>136.5494</v>
       </c>
     </row>
     <row r="59">
@@ -2216,7 +2216,7 @@
         <v>220</v>
       </c>
       <c r="G59" t="n">
-        <v>147.8494</v>
+        <v>149.9766</v>
       </c>
     </row>
     <row r="60">
@@ -2239,7 +2239,7 @@
         <v>240</v>
       </c>
       <c r="G60" t="n">
-        <v>161.5424</v>
+        <v>162.5819</v>
       </c>
     </row>
     <row r="61">
@@ -2262,7 +2262,7 @@
         <v>260</v>
       </c>
       <c r="G61" t="n">
-        <v>173.0214</v>
+        <v>171.7633</v>
       </c>
     </row>
     <row r="62">
@@ -2285,7 +2285,7 @@
         <v>80</v>
       </c>
       <c r="G62" t="n">
-        <v>64.6332</v>
+        <v>65.4399</v>
       </c>
     </row>
     <row r="63">
@@ -2308,7 +2308,7 @@
         <v>100</v>
       </c>
       <c r="G63" t="n">
-        <v>75.9838</v>
+        <v>76.4076</v>
       </c>
     </row>
     <row r="64">
@@ -2331,7 +2331,7 @@
         <v>120</v>
       </c>
       <c r="G64" t="n">
-        <v>88.4513</v>
+        <v>88.298</v>
       </c>
     </row>
     <row r="65">
@@ -2354,7 +2354,7 @@
         <v>140</v>
       </c>
       <c r="G65" t="n">
-        <v>101.5439</v>
+        <v>99.5506</v>
       </c>
     </row>
     <row r="66">
@@ -2377,7 +2377,7 @@
         <v>160</v>
       </c>
       <c r="G66" t="n">
-        <v>114.0891</v>
+        <v>113.7028</v>
       </c>
     </row>
     <row r="67">
@@ -2400,7 +2400,7 @@
         <v>180</v>
       </c>
       <c r="G67" t="n">
-        <v>123.7746</v>
+        <v>124.8702</v>
       </c>
     </row>
     <row r="68">
@@ -2423,7 +2423,7 @@
         <v>200</v>
       </c>
       <c r="G68" t="n">
-        <v>137.5367</v>
+        <v>138.0294</v>
       </c>
     </row>
     <row r="69">
@@ -2446,7 +2446,7 @@
         <v>220</v>
       </c>
       <c r="G69" t="n">
-        <v>149.6385</v>
+        <v>148.5579</v>
       </c>
     </row>
     <row r="70">
@@ -2469,7 +2469,7 @@
         <v>240</v>
       </c>
       <c r="G70" t="n">
-        <v>162.0703</v>
+        <v>161.4733</v>
       </c>
     </row>
     <row r="71">
@@ -2492,7 +2492,7 @@
         <v>260</v>
       </c>
       <c r="G71" t="n">
-        <v>171.223</v>
+        <v>172.0078</v>
       </c>
     </row>
     <row r="72">
@@ -2515,7 +2515,7 @@
         <v>80</v>
       </c>
       <c r="G72" t="n">
-        <v>65.0187</v>
+        <v>65.1248</v>
       </c>
     </row>
     <row r="73">
@@ -2538,7 +2538,7 @@
         <v>100</v>
       </c>
       <c r="G73" t="n">
-        <v>76.8055</v>
+        <v>76.5514</v>
       </c>
     </row>
     <row r="74">
@@ -2561,7 +2561,7 @@
         <v>120</v>
       </c>
       <c r="G74" t="n">
-        <v>90.2789</v>
+        <v>90.1321</v>
       </c>
     </row>
     <row r="75">
@@ -2584,7 +2584,7 @@
         <v>140</v>
       </c>
       <c r="G75" t="n">
-        <v>100.3702</v>
+        <v>100.0929</v>
       </c>
     </row>
     <row r="76">
@@ -2607,7 +2607,7 @@
         <v>160</v>
       </c>
       <c r="G76" t="n">
-        <v>111.4364</v>
+        <v>112.0978</v>
       </c>
     </row>
     <row r="77">
@@ -2630,7 +2630,7 @@
         <v>180</v>
       </c>
       <c r="G77" t="n">
-        <v>124.129</v>
+        <v>124.4304</v>
       </c>
     </row>
     <row r="78">
@@ -2653,7 +2653,7 @@
         <v>200</v>
       </c>
       <c r="G78" t="n">
-        <v>136.87</v>
+        <v>138.6087</v>
       </c>
     </row>
     <row r="79">
@@ -2676,7 +2676,7 @@
         <v>220</v>
       </c>
       <c r="G79" t="n">
-        <v>149.5904</v>
+        <v>148.3659</v>
       </c>
     </row>
     <row r="80">
@@ -2699,7 +2699,7 @@
         <v>240</v>
       </c>
       <c r="G80" t="n">
-        <v>159.1558</v>
+        <v>160.5302</v>
       </c>
     </row>
     <row r="81">
@@ -2722,7 +2722,7 @@
         <v>260</v>
       </c>
       <c r="G81" t="n">
-        <v>172.4141</v>
+        <v>172.855</v>
       </c>
     </row>
     <row r="82">
@@ -2745,7 +2745,7 @@
         <v>80</v>
       </c>
       <c r="G82" t="n">
-        <v>63.7737</v>
+        <v>65.9241</v>
       </c>
     </row>
     <row r="83">
@@ -2768,7 +2768,7 @@
         <v>100</v>
       </c>
       <c r="G83" t="n">
-        <v>77.2557</v>
+        <v>76.6615</v>
       </c>
     </row>
     <row r="84">
@@ -2791,7 +2791,7 @@
         <v>120</v>
       </c>
       <c r="G84" t="n">
-        <v>88.3823</v>
+        <v>90.5379</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>140</v>
       </c>
       <c r="G85" t="n">
-        <v>100.9626</v>
+        <v>99.8114</v>
       </c>
     </row>
     <row r="86">
@@ -2837,7 +2837,7 @@
         <v>160</v>
       </c>
       <c r="G86" t="n">
-        <v>112.9506</v>
+        <v>112.1737</v>
       </c>
     </row>
     <row r="87">
@@ -2860,7 +2860,7 @@
         <v>180</v>
       </c>
       <c r="G87" t="n">
-        <v>123.9445</v>
+        <v>124.9469</v>
       </c>
     </row>
     <row r="88">
@@ -2883,7 +2883,7 @@
         <v>200</v>
       </c>
       <c r="G88" t="n">
-        <v>137.3099</v>
+        <v>137.003</v>
       </c>
     </row>
     <row r="89">
@@ -2906,7 +2906,7 @@
         <v>220</v>
       </c>
       <c r="G89" t="n">
-        <v>148.4694</v>
+        <v>147.3273</v>
       </c>
     </row>
     <row r="90">
@@ -2929,7 +2929,7 @@
         <v>240</v>
       </c>
       <c r="G90" t="n">
-        <v>160.7697</v>
+        <v>160.3377</v>
       </c>
     </row>
     <row r="91">
@@ -2952,7 +2952,7 @@
         <v>260</v>
       </c>
       <c r="G91" t="n">
-        <v>173.909</v>
+        <v>173.7195</v>
       </c>
     </row>
     <row r="92">
@@ -2975,7 +2975,7 @@
         <v>80</v>
       </c>
       <c r="G92" t="n">
-        <v>65.4706</v>
+        <v>64.1692</v>
       </c>
     </row>
     <row r="93">
@@ -2998,7 +2998,7 @@
         <v>100</v>
       </c>
       <c r="G93" t="n">
-        <v>77.6352</v>
+        <v>76.2005</v>
       </c>
     </row>
     <row r="94">
@@ -3021,7 +3021,7 @@
         <v>120</v>
       </c>
       <c r="G94" t="n">
-        <v>89.0675</v>
+        <v>90.1452</v>
       </c>
     </row>
     <row r="95">
@@ -3044,7 +3044,7 @@
         <v>140</v>
       </c>
       <c r="G95" t="n">
-        <v>100.7414</v>
+        <v>101.0934</v>
       </c>
     </row>
     <row r="96">
@@ -3067,7 +3067,7 @@
         <v>160</v>
       </c>
       <c r="G96" t="n">
-        <v>113.2155</v>
+        <v>114.5108</v>
       </c>
     </row>
     <row r="97">
@@ -3090,7 +3090,7 @@
         <v>180</v>
       </c>
       <c r="G97" t="n">
-        <v>125.8484</v>
+        <v>126.1294</v>
       </c>
     </row>
     <row r="98">
@@ -3113,7 +3113,7 @@
         <v>200</v>
       </c>
       <c r="G98" t="n">
-        <v>136.1756</v>
+        <v>135.7592</v>
       </c>
     </row>
     <row r="99">
@@ -3136,7 +3136,7 @@
         <v>220</v>
       </c>
       <c r="G99" t="n">
-        <v>149.657</v>
+        <v>149.9126</v>
       </c>
     </row>
     <row r="100">
@@ -3159,7 +3159,7 @@
         <v>240</v>
       </c>
       <c r="G100" t="n">
-        <v>161.7155</v>
+        <v>162.1516</v>
       </c>
     </row>
     <row r="101">
@@ -3182,7 +3182,7 @@
         <v>260</v>
       </c>
       <c r="G101" t="n">
-        <v>172.122</v>
+        <v>172.6369</v>
       </c>
     </row>
     <row r="102">
@@ -3205,7 +3205,7 @@
         <v>80</v>
       </c>
       <c r="G102" t="n">
-        <v>64.2302</v>
+        <v>64.6043</v>
       </c>
     </row>
     <row r="103">
@@ -3228,7 +3228,7 @@
         <v>100</v>
       </c>
       <c r="G103" t="n">
-        <v>77.8544</v>
+        <v>77.6247</v>
       </c>
     </row>
     <row r="104">
@@ -3251,7 +3251,7 @@
         <v>120</v>
       </c>
       <c r="G104" t="n">
-        <v>89.0674</v>
+        <v>88.2394</v>
       </c>
     </row>
     <row r="105">
@@ -3274,7 +3274,7 @@
         <v>140</v>
       </c>
       <c r="G105" t="n">
-        <v>100.7967</v>
+        <v>100.7678</v>
       </c>
     </row>
     <row r="106">
@@ -3297,7 +3297,7 @@
         <v>160</v>
       </c>
       <c r="G106" t="n">
-        <v>112.2183</v>
+        <v>113.4105</v>
       </c>
     </row>
     <row r="107">
@@ -3320,7 +3320,7 @@
         <v>180</v>
       </c>
       <c r="G107" t="n">
-        <v>126.3882</v>
+        <v>122.9998</v>
       </c>
     </row>
     <row r="108">
@@ -3343,7 +3343,7 @@
         <v>200</v>
       </c>
       <c r="G108" t="n">
-        <v>136.2237</v>
+        <v>137.3984</v>
       </c>
     </row>
     <row r="109">
@@ -3366,7 +3366,7 @@
         <v>220</v>
       </c>
       <c r="G109" t="n">
-        <v>148.6016</v>
+        <v>148.0042</v>
       </c>
     </row>
     <row r="110">
@@ -3389,7 +3389,7 @@
         <v>240</v>
       </c>
       <c r="G110" t="n">
-        <v>160.8906</v>
+        <v>160.4687</v>
       </c>
     </row>
     <row r="111">
@@ -3412,7 +3412,7 @@
         <v>260</v>
       </c>
       <c r="G111" t="n">
-        <v>172.4311</v>
+        <v>173.431</v>
       </c>
     </row>
     <row r="112">
@@ -3435,7 +3435,7 @@
         <v>80</v>
       </c>
       <c r="G112" t="n">
-        <v>63.7009</v>
+        <v>64.295</v>
       </c>
     </row>
     <row r="113">
@@ -3458,7 +3458,7 @@
         <v>100</v>
       </c>
       <c r="G113" t="n">
-        <v>75.722</v>
+        <v>77.0595</v>
       </c>
     </row>
     <row r="114">
@@ -3481,7 +3481,7 @@
         <v>120</v>
       </c>
       <c r="G114" t="n">
-        <v>88.0511</v>
+        <v>88.3482</v>
       </c>
     </row>
     <row r="115">
@@ -3504,7 +3504,7 @@
         <v>140</v>
       </c>
       <c r="G115" t="n">
-        <v>101.2637</v>
+        <v>100.4855</v>
       </c>
     </row>
     <row r="116">
@@ -3527,7 +3527,7 @@
         <v>160</v>
       </c>
       <c r="G116" t="n">
-        <v>111.8353</v>
+        <v>113.0659</v>
       </c>
     </row>
     <row r="117">
@@ -3550,7 +3550,7 @@
         <v>180</v>
       </c>
       <c r="G117" t="n">
-        <v>124.7278</v>
+        <v>124.7796</v>
       </c>
     </row>
     <row r="118">
@@ -3573,7 +3573,7 @@
         <v>200</v>
       </c>
       <c r="G118" t="n">
-        <v>135.0244</v>
+        <v>136.9276</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         <v>220</v>
       </c>
       <c r="G119" t="n">
-        <v>149.1497</v>
+        <v>148.4315</v>
       </c>
     </row>
     <row r="120">
@@ -3619,7 +3619,7 @@
         <v>240</v>
       </c>
       <c r="G120" t="n">
-        <v>159.1384</v>
+        <v>161.3852</v>
       </c>
     </row>
     <row r="121">
@@ -3642,7 +3642,7 @@
         <v>260</v>
       </c>
       <c r="G121" t="n">
-        <v>173.5747</v>
+        <v>172.4095</v>
       </c>
     </row>
     <row r="122">
@@ -3665,7 +3665,7 @@
         <v>80</v>
       </c>
       <c r="G122" t="n">
-        <v>66.1157</v>
+        <v>64.7854</v>
       </c>
     </row>
     <row r="123">
@@ -3688,7 +3688,7 @@
         <v>100</v>
       </c>
       <c r="G123" t="n">
-        <v>77.2304</v>
+        <v>76.2791</v>
       </c>
     </row>
     <row r="124">
@@ -3711,7 +3711,7 @@
         <v>120</v>
       </c>
       <c r="G124" t="n">
-        <v>90.2087</v>
+        <v>90.5868</v>
       </c>
     </row>
     <row r="125">
@@ -3734,7 +3734,7 @@
         <v>140</v>
       </c>
       <c r="G125" t="n">
-        <v>101.7454</v>
+        <v>100.0676</v>
       </c>
     </row>
     <row r="126">
@@ -3757,7 +3757,7 @@
         <v>160</v>
       </c>
       <c r="G126" t="n">
-        <v>111.3907</v>
+        <v>113.7457</v>
       </c>
     </row>
     <row r="127">
@@ -3780,7 +3780,7 @@
         <v>180</v>
       </c>
       <c r="G127" t="n">
-        <v>124.7698</v>
+        <v>124.756</v>
       </c>
     </row>
     <row r="128">
@@ -3803,7 +3803,7 @@
         <v>200</v>
       </c>
       <c r="G128" t="n">
-        <v>136.6146</v>
+        <v>136.7859</v>
       </c>
     </row>
     <row r="129">
@@ -3826,7 +3826,7 @@
         <v>220</v>
       </c>
       <c r="G129" t="n">
-        <v>148.412</v>
+        <v>149.461</v>
       </c>
     </row>
     <row r="130">
@@ -3849,7 +3849,7 @@
         <v>240</v>
       </c>
       <c r="G130" t="n">
-        <v>160.6221</v>
+        <v>160.9234</v>
       </c>
     </row>
     <row r="131">
@@ -3872,7 +3872,7 @@
         <v>260</v>
       </c>
       <c r="G131" t="n">
-        <v>171.4863</v>
+        <v>173.3535</v>
       </c>
     </row>
     <row r="132">
@@ -3895,7 +3895,7 @@
         <v>80</v>
       </c>
       <c r="G132" t="n">
-        <v>65.4047</v>
+        <v>64.6054</v>
       </c>
     </row>
     <row r="133">
@@ -3918,7 +3918,7 @@
         <v>100</v>
       </c>
       <c r="G133" t="n">
-        <v>76.4746</v>
+        <v>78.653</v>
       </c>
     </row>
     <row r="134">
@@ -3941,7 +3941,7 @@
         <v>120</v>
       </c>
       <c r="G134" t="n">
-        <v>88.9758</v>
+        <v>88.543</v>
       </c>
     </row>
     <row r="135">
@@ -3964,7 +3964,7 @@
         <v>140</v>
       </c>
       <c r="G135" t="n">
-        <v>100.1777</v>
+        <v>99.885</v>
       </c>
     </row>
     <row r="136">
@@ -3987,7 +3987,7 @@
         <v>160</v>
       </c>
       <c r="G136" t="n">
-        <v>112.2014</v>
+        <v>113.8873</v>
       </c>
     </row>
     <row r="137">
@@ -4010,7 +4010,7 @@
         <v>180</v>
       </c>
       <c r="G137" t="n">
-        <v>126.3194</v>
+        <v>124.5155</v>
       </c>
     </row>
     <row r="138">
@@ -4033,7 +4033,7 @@
         <v>200</v>
       </c>
       <c r="G138" t="n">
-        <v>136.8181</v>
+        <v>138.5992</v>
       </c>
     </row>
     <row r="139">
@@ -4056,7 +4056,7 @@
         <v>220</v>
       </c>
       <c r="G139" t="n">
-        <v>148.5587</v>
+        <v>149.5767</v>
       </c>
     </row>
     <row r="140">
@@ -4079,7 +4079,7 @@
         <v>240</v>
       </c>
       <c r="G140" t="n">
-        <v>162.3512</v>
+        <v>160.289</v>
       </c>
     </row>
     <row r="141">
@@ -4102,7 +4102,7 @@
         <v>260</v>
       </c>
       <c r="G141" t="n">
-        <v>172.6479</v>
+        <v>172.9633</v>
       </c>
     </row>
     <row r="142">
@@ -4125,7 +4125,7 @@
         <v>80</v>
       </c>
       <c r="G142" t="n">
-        <v>64.1365</v>
+        <v>65.5469</v>
       </c>
     </row>
     <row r="143">
@@ -4148,7 +4148,7 @@
         <v>100</v>
       </c>
       <c r="G143" t="n">
-        <v>77.4905</v>
+        <v>78.4714</v>
       </c>
     </row>
     <row r="144">
@@ -4171,7 +4171,7 @@
         <v>120</v>
       </c>
       <c r="G144" t="n">
-        <v>88.9472</v>
+        <v>88.8063</v>
       </c>
     </row>
     <row r="145">
@@ -4194,7 +4194,7 @@
         <v>140</v>
       </c>
       <c r="G145" t="n">
-        <v>102.0418</v>
+        <v>99.2573</v>
       </c>
     </row>
     <row r="146">
@@ -4217,7 +4217,7 @@
         <v>160</v>
       </c>
       <c r="G146" t="n">
-        <v>111.8583</v>
+        <v>113.7409</v>
       </c>
     </row>
     <row r="147">
@@ -4240,7 +4240,7 @@
         <v>180</v>
       </c>
       <c r="G147" t="n">
-        <v>125.6005</v>
+        <v>126.2944</v>
       </c>
     </row>
     <row r="148">
@@ -4263,7 +4263,7 @@
         <v>200</v>
       </c>
       <c r="G148" t="n">
-        <v>137.1249</v>
+        <v>138.7092</v>
       </c>
     </row>
     <row r="149">
@@ -4286,7 +4286,7 @@
         <v>220</v>
       </c>
       <c r="G149" t="n">
-        <v>149.8453</v>
+        <v>149.2818</v>
       </c>
     </row>
     <row r="150">
@@ -4309,7 +4309,7 @@
         <v>240</v>
       </c>
       <c r="G150" t="n">
-        <v>160.7889</v>
+        <v>159.7409</v>
       </c>
     </row>
     <row r="151">
@@ -4332,7 +4332,7 @@
         <v>260</v>
       </c>
       <c r="G151" t="n">
-        <v>173.7205</v>
+        <v>172.6325</v>
       </c>
     </row>
     <row r="152">
@@ -4355,7 +4355,7 @@
         <v>80</v>
       </c>
       <c r="G152" t="n">
-        <v>66.2981</v>
+        <v>65.0118</v>
       </c>
     </row>
     <row r="153">
@@ -4378,7 +4378,7 @@
         <v>100</v>
       </c>
       <c r="G153" t="n">
-        <v>77.054</v>
+        <v>75.6126</v>
       </c>
     </row>
     <row r="154">
@@ -4401,7 +4401,7 @@
         <v>120</v>
       </c>
       <c r="G154" t="n">
-        <v>88.3942</v>
+        <v>89.4028</v>
       </c>
     </row>
     <row r="155">
@@ -4424,7 +4424,7 @@
         <v>140</v>
       </c>
       <c r="G155" t="n">
-        <v>102.4581</v>
+        <v>101.9263</v>
       </c>
     </row>
     <row r="156">
@@ -4447,7 +4447,7 @@
         <v>160</v>
       </c>
       <c r="G156" t="n">
-        <v>112.398</v>
+        <v>112.7997</v>
       </c>
     </row>
     <row r="157">
@@ -4470,7 +4470,7 @@
         <v>180</v>
       </c>
       <c r="G157" t="n">
-        <v>124.4451</v>
+        <v>123.5257</v>
       </c>
     </row>
     <row r="158">
@@ -4493,7 +4493,7 @@
         <v>200</v>
       </c>
       <c r="G158" t="n">
-        <v>134.6484</v>
+        <v>135.5302</v>
       </c>
     </row>
     <row r="159">
@@ -4516,7 +4516,7 @@
         <v>220</v>
       </c>
       <c r="G159" t="n">
-        <v>149.2882</v>
+        <v>149.6756</v>
       </c>
     </row>
     <row r="160">
@@ -4539,7 +4539,7 @@
         <v>240</v>
       </c>
       <c r="G160" t="n">
-        <v>160.8282</v>
+        <v>161.7326</v>
       </c>
     </row>
     <row r="161">
@@ -4562,7 +4562,7 @@
         <v>260</v>
       </c>
       <c r="G161" t="n">
-        <v>172.2016</v>
+        <v>173.3544</v>
       </c>
     </row>
     <row r="162">
@@ -4585,7 +4585,7 @@
         <v>80</v>
       </c>
       <c r="G162" t="n">
-        <v>64.91</v>
+        <v>64.6871</v>
       </c>
     </row>
     <row r="163">
@@ -4608,7 +4608,7 @@
         <v>100</v>
       </c>
       <c r="G163" t="n">
-        <v>76.8654</v>
+        <v>78.1354</v>
       </c>
     </row>
     <row r="164">
@@ -4631,7 +4631,7 @@
         <v>120</v>
       </c>
       <c r="G164" t="n">
-        <v>88.6189</v>
+        <v>89.1329</v>
       </c>
     </row>
     <row r="165">
@@ -4654,7 +4654,7 @@
         <v>140</v>
       </c>
       <c r="G165" t="n">
-        <v>101.3208</v>
+        <v>98.444</v>
       </c>
     </row>
     <row r="166">
@@ -4677,7 +4677,7 @@
         <v>160</v>
       </c>
       <c r="G166" t="n">
-        <v>113.8465</v>
+        <v>111.9415</v>
       </c>
     </row>
     <row r="167">
@@ -4700,7 +4700,7 @@
         <v>180</v>
       </c>
       <c r="G167" t="n">
-        <v>123.0474</v>
+        <v>124.3417</v>
       </c>
     </row>
     <row r="168">
@@ -4723,7 +4723,7 @@
         <v>200</v>
       </c>
       <c r="G168" t="n">
-        <v>138.3195</v>
+        <v>137.5262</v>
       </c>
     </row>
     <row r="169">
@@ -4746,7 +4746,7 @@
         <v>220</v>
       </c>
       <c r="G169" t="n">
-        <v>149.1291</v>
+        <v>147.7872</v>
       </c>
     </row>
     <row r="170">
@@ -4769,7 +4769,7 @@
         <v>240</v>
       </c>
       <c r="G170" t="n">
-        <v>162.2784</v>
+        <v>161.4383</v>
       </c>
     </row>
     <row r="171">
@@ -4792,7 +4792,7 @@
         <v>260</v>
       </c>
       <c r="G171" t="n">
-        <v>173.508</v>
+        <v>171.0078</v>
       </c>
     </row>
     <row r="172">
@@ -4815,7 +4815,7 @@
         <v>80</v>
       </c>
       <c r="G172" t="n">
-        <v>65.1462</v>
+        <v>63.9592</v>
       </c>
     </row>
     <row r="173">
@@ -4838,7 +4838,7 @@
         <v>100</v>
       </c>
       <c r="G173" t="n">
-        <v>76.7327</v>
+        <v>75.9964</v>
       </c>
     </row>
     <row r="174">
@@ -4861,7 +4861,7 @@
         <v>120</v>
       </c>
       <c r="G174" t="n">
-        <v>87.4328</v>
+        <v>88.352</v>
       </c>
     </row>
     <row r="175">
@@ -4884,7 +4884,7 @@
         <v>140</v>
       </c>
       <c r="G175" t="n">
-        <v>100.4826</v>
+        <v>99.7416</v>
       </c>
     </row>
     <row r="176">
@@ -4907,7 +4907,7 @@
         <v>160</v>
       </c>
       <c r="G176" t="n">
-        <v>113.6933</v>
+        <v>113.151</v>
       </c>
     </row>
     <row r="177">
@@ -4930,7 +4930,7 @@
         <v>180</v>
       </c>
       <c r="G177" t="n">
-        <v>124.156</v>
+        <v>123.9773</v>
       </c>
     </row>
     <row r="178">
@@ -4953,7 +4953,7 @@
         <v>200</v>
       </c>
       <c r="G178" t="n">
-        <v>136.7042</v>
+        <v>135.0632</v>
       </c>
     </row>
     <row r="179">
@@ -4976,7 +4976,7 @@
         <v>220</v>
       </c>
       <c r="G179" t="n">
-        <v>149.1554</v>
+        <v>148.3649</v>
       </c>
     </row>
     <row r="180">
@@ -4999,7 +4999,7 @@
         <v>240</v>
       </c>
       <c r="G180" t="n">
-        <v>161.5384</v>
+        <v>162.7316</v>
       </c>
     </row>
     <row r="181">
@@ -5022,7 +5022,7 @@
         <v>260</v>
       </c>
       <c r="G181" t="n">
-        <v>173.8461</v>
+        <v>174.1293</v>
       </c>
     </row>
     <row r="182">
@@ -5045,7 +5045,7 @@
         <v>80</v>
       </c>
       <c r="G182" t="n">
-        <v>67.3355</v>
+        <v>64.5868</v>
       </c>
     </row>
     <row r="183">
@@ -5068,7 +5068,7 @@
         <v>100</v>
       </c>
       <c r="G183" t="n">
-        <v>78.5193</v>
+        <v>78.6477</v>
       </c>
     </row>
     <row r="184">
@@ -5091,7 +5091,7 @@
         <v>120</v>
       </c>
       <c r="G184" t="n">
-        <v>90.0532</v>
+        <v>90.0404</v>
       </c>
     </row>
     <row r="185">
@@ -5114,7 +5114,7 @@
         <v>140</v>
       </c>
       <c r="G185" t="n">
-        <v>101.5517</v>
+        <v>101.3796</v>
       </c>
     </row>
     <row r="186">
@@ -5137,7 +5137,7 @@
         <v>160</v>
       </c>
       <c r="G186" t="n">
-        <v>113.3055</v>
+        <v>113.3799</v>
       </c>
     </row>
     <row r="187">
@@ -5160,7 +5160,7 @@
         <v>180</v>
       </c>
       <c r="G187" t="n">
-        <v>125.0908</v>
+        <v>124.3588</v>
       </c>
     </row>
     <row r="188">
@@ -5183,7 +5183,7 @@
         <v>200</v>
       </c>
       <c r="G188" t="n">
-        <v>136.1812</v>
+        <v>136.3976</v>
       </c>
     </row>
     <row r="189">
@@ -5206,7 +5206,7 @@
         <v>220</v>
       </c>
       <c r="G189" t="n">
-        <v>148.3161</v>
+        <v>148.1624</v>
       </c>
     </row>
     <row r="190">
@@ -5229,7 +5229,7 @@
         <v>240</v>
       </c>
       <c r="G190" t="n">
-        <v>160.6025</v>
+        <v>161.1365</v>
       </c>
     </row>
     <row r="191">
@@ -5252,7 +5252,7 @@
         <v>260</v>
       </c>
       <c r="G191" t="n">
-        <v>172.5337</v>
+        <v>174.2797</v>
       </c>
     </row>
     <row r="192">
@@ -5275,7 +5275,7 @@
         <v>80</v>
       </c>
       <c r="G192" t="n">
-        <v>63.6281</v>
+        <v>65.5191</v>
       </c>
     </row>
     <row r="193">
@@ -5298,7 +5298,7 @@
         <v>100</v>
       </c>
       <c r="G193" t="n">
-        <v>76.904</v>
+        <v>76.8534</v>
       </c>
     </row>
     <row r="194">
@@ -5321,7 +5321,7 @@
         <v>120</v>
       </c>
       <c r="G194" t="n">
-        <v>90.0082</v>
+        <v>91.2055</v>
       </c>
     </row>
     <row r="195">
@@ -5344,7 +5344,7 @@
         <v>140</v>
       </c>
       <c r="G195" t="n">
-        <v>100.9464</v>
+        <v>99.4654</v>
       </c>
     </row>
     <row r="196">
@@ -5367,7 +5367,7 @@
         <v>160</v>
       </c>
       <c r="G196" t="n">
-        <v>111.9101</v>
+        <v>113.1589</v>
       </c>
     </row>
     <row r="197">
@@ -5390,7 +5390,7 @@
         <v>180</v>
       </c>
       <c r="G197" t="n">
-        <v>125.2314</v>
+        <v>125.5479</v>
       </c>
     </row>
     <row r="198">
@@ -5413,7 +5413,7 @@
         <v>200</v>
       </c>
       <c r="G198" t="n">
-        <v>136.8599</v>
+        <v>136.5616</v>
       </c>
     </row>
     <row r="199">
@@ -5436,7 +5436,7 @@
         <v>220</v>
       </c>
       <c r="G199" t="n">
-        <v>148.4303</v>
+        <v>150.7529</v>
       </c>
     </row>
     <row r="200">
@@ -5459,7 +5459,7 @@
         <v>240</v>
       </c>
       <c r="G200" t="n">
-        <v>160.4968</v>
+        <v>161.646</v>
       </c>
     </row>
     <row r="201">
@@ -5482,7 +5482,7 @@
         <v>260</v>
       </c>
       <c r="G201" t="n">
-        <v>172.8484</v>
+        <v>173.1262</v>
       </c>
     </row>
     <row r="202">
@@ -5505,7 +5505,7 @@
         <v>80</v>
       </c>
       <c r="G202" t="n">
-        <v>66.1858</v>
+        <v>66.0323</v>
       </c>
     </row>
     <row r="203">
@@ -5528,7 +5528,7 @@
         <v>100</v>
       </c>
       <c r="G203" t="n">
-        <v>77.0692</v>
+        <v>76.7878</v>
       </c>
     </row>
     <row r="204">
@@ -5551,7 +5551,7 @@
         <v>120</v>
       </c>
       <c r="G204" t="n">
-        <v>89.6807</v>
+        <v>88.7749</v>
       </c>
     </row>
     <row r="205">
@@ -5574,7 +5574,7 @@
         <v>140</v>
       </c>
       <c r="G205" t="n">
-        <v>102.0435</v>
+        <v>99.408</v>
       </c>
     </row>
     <row r="206">
@@ -5597,7 +5597,7 @@
         <v>160</v>
       </c>
       <c r="G206" t="n">
-        <v>112.3289</v>
+        <v>112.9603</v>
       </c>
     </row>
     <row r="207">
@@ -5620,7 +5620,7 @@
         <v>180</v>
       </c>
       <c r="G207" t="n">
-        <v>124.2572</v>
+        <v>123.3469</v>
       </c>
     </row>
     <row r="208">
@@ -5643,7 +5643,7 @@
         <v>200</v>
       </c>
       <c r="G208" t="n">
-        <v>136.4298</v>
+        <v>137.8476</v>
       </c>
     </row>
     <row r="209">
@@ -5666,7 +5666,7 @@
         <v>220</v>
       </c>
       <c r="G209" t="n">
-        <v>149.2931</v>
+        <v>150.3481</v>
       </c>
     </row>
     <row r="210">
@@ -5689,7 +5689,7 @@
         <v>240</v>
       </c>
       <c r="G210" t="n">
-        <v>162.6407</v>
+        <v>159.9152</v>
       </c>
     </row>
     <row r="211">
@@ -5712,7 +5712,7 @@
         <v>260</v>
       </c>
       <c r="G211" t="n">
-        <v>173.2066</v>
+        <v>174.6729</v>
       </c>
     </row>
     <row r="212">
@@ -5735,7 +5735,7 @@
         <v>80</v>
       </c>
       <c r="G212" t="n">
-        <v>63.6028</v>
+        <v>64.015</v>
       </c>
     </row>
     <row r="213">
@@ -5758,7 +5758,7 @@
         <v>100</v>
       </c>
       <c r="G213" t="n">
-        <v>76.2942</v>
+        <v>76.2324</v>
       </c>
     </row>
     <row r="214">
@@ -5781,7 +5781,7 @@
         <v>120</v>
       </c>
       <c r="G214" t="n">
-        <v>89.9569</v>
+        <v>88.6976</v>
       </c>
     </row>
     <row r="215">
@@ -5804,7 +5804,7 @@
         <v>140</v>
       </c>
       <c r="G215" t="n">
-        <v>101.2322</v>
+        <v>102.152</v>
       </c>
     </row>
     <row r="216">
@@ -5827,7 +5827,7 @@
         <v>160</v>
       </c>
       <c r="G216" t="n">
-        <v>112.7368</v>
+        <v>112.1822</v>
       </c>
     </row>
     <row r="217">
@@ -5850,7 +5850,7 @@
         <v>180</v>
       </c>
       <c r="G217" t="n">
-        <v>124.9822</v>
+        <v>126.9843</v>
       </c>
     </row>
     <row r="218">
@@ -5873,7 +5873,7 @@
         <v>200</v>
       </c>
       <c r="G218" t="n">
-        <v>137.0717</v>
+        <v>135.4981</v>
       </c>
     </row>
     <row r="219">
@@ -5896,7 +5896,7 @@
         <v>220</v>
       </c>
       <c r="G219" t="n">
-        <v>149.5638</v>
+        <v>149.333</v>
       </c>
     </row>
     <row r="220">
@@ -5919,7 +5919,7 @@
         <v>240</v>
       </c>
       <c r="G220" t="n">
-        <v>162.5542</v>
+        <v>160.1062</v>
       </c>
     </row>
     <row r="221">
@@ -5942,7 +5942,7 @@
         <v>260</v>
       </c>
       <c r="G221" t="n">
-        <v>172.8235</v>
+        <v>172.7029</v>
       </c>
     </row>
     <row r="222">
@@ -5965,7 +5965,7 @@
         <v>80</v>
       </c>
       <c r="G222" t="n">
-        <v>65.5149</v>
+        <v>65.0271</v>
       </c>
     </row>
     <row r="223">
@@ -5988,7 +5988,7 @@
         <v>100</v>
       </c>
       <c r="G223" t="n">
-        <v>77.7871</v>
+        <v>77.0407</v>
       </c>
     </row>
     <row r="224">
@@ -6011,7 +6011,7 @@
         <v>120</v>
       </c>
       <c r="G224" t="n">
-        <v>89.0948</v>
+        <v>88.4608</v>
       </c>
     </row>
     <row r="225">
@@ -6034,7 +6034,7 @@
         <v>140</v>
       </c>
       <c r="G225" t="n">
-        <v>100.1008</v>
+        <v>102.9641</v>
       </c>
     </row>
     <row r="226">
@@ -6057,7 +6057,7 @@
         <v>160</v>
       </c>
       <c r="G226" t="n">
-        <v>113.4549</v>
+        <v>113.9676</v>
       </c>
     </row>
     <row r="227">
@@ -6080,7 +6080,7 @@
         <v>180</v>
       </c>
       <c r="G227" t="n">
-        <v>126.1793</v>
+        <v>126.8858</v>
       </c>
     </row>
     <row r="228">
@@ -6103,7 +6103,7 @@
         <v>200</v>
       </c>
       <c r="G228" t="n">
-        <v>136.3269</v>
+        <v>138.0723</v>
       </c>
     </row>
     <row r="229">
@@ -6126,7 +6126,7 @@
         <v>220</v>
       </c>
       <c r="G229" t="n">
-        <v>148.5017</v>
+        <v>148.5617</v>
       </c>
     </row>
     <row r="230">
@@ -6149,7 +6149,7 @@
         <v>240</v>
       </c>
       <c r="G230" t="n">
-        <v>160.2906</v>
+        <v>162.0617</v>
       </c>
     </row>
     <row r="231">
@@ -6172,7 +6172,7 @@
         <v>260</v>
       </c>
       <c r="G231" t="n">
-        <v>173.6958</v>
+        <v>173.9553</v>
       </c>
     </row>
     <row r="232">
@@ -6195,7 +6195,7 @@
         <v>80</v>
       </c>
       <c r="G232" t="n">
-        <v>64.7544</v>
+        <v>63.6933</v>
       </c>
     </row>
     <row r="233">
@@ -6218,7 +6218,7 @@
         <v>100</v>
       </c>
       <c r="G233" t="n">
-        <v>78.0277</v>
+        <v>77.5374</v>
       </c>
     </row>
     <row r="234">
@@ -6241,7 +6241,7 @@
         <v>120</v>
       </c>
       <c r="G234" t="n">
-        <v>88.9363</v>
+        <v>90.319</v>
       </c>
     </row>
     <row r="235">
@@ -6264,7 +6264,7 @@
         <v>140</v>
       </c>
       <c r="G235" t="n">
-        <v>101.6954</v>
+        <v>99.1571</v>
       </c>
     </row>
     <row r="236">
@@ -6287,7 +6287,7 @@
         <v>160</v>
       </c>
       <c r="G236" t="n">
-        <v>112.5912</v>
+        <v>112.2069</v>
       </c>
     </row>
     <row r="237">
@@ -6310,7 +6310,7 @@
         <v>180</v>
       </c>
       <c r="G237" t="n">
-        <v>123.3191</v>
+        <v>124.3282</v>
       </c>
     </row>
     <row r="238">
@@ -6333,7 +6333,7 @@
         <v>200</v>
       </c>
       <c r="G238" t="n">
-        <v>137.4329</v>
+        <v>135.6526</v>
       </c>
     </row>
     <row r="239">
@@ -6356,7 +6356,7 @@
         <v>220</v>
       </c>
       <c r="G239" t="n">
-        <v>148.66</v>
+        <v>144.8373</v>
       </c>
     </row>
     <row r="240">
@@ -6379,7 +6379,7 @@
         <v>240</v>
       </c>
       <c r="G240" t="n">
-        <v>161.2529</v>
+        <v>159.4743</v>
       </c>
     </row>
     <row r="241">
@@ -6402,7 +6402,7 @@
         <v>260</v>
       </c>
       <c r="G241" t="n">
-        <v>172.6067</v>
+        <v>174.6865</v>
       </c>
     </row>
     <row r="242">
@@ -6425,7 +6425,7 @@
         <v>80</v>
       </c>
       <c r="G242" t="n">
-        <v>64.4551</v>
+        <v>64.6272</v>
       </c>
     </row>
     <row r="243">
@@ -6448,7 +6448,7 @@
         <v>100</v>
       </c>
       <c r="G243" t="n">
-        <v>77.8499</v>
+        <v>75.1149</v>
       </c>
     </row>
     <row r="244">
@@ -6471,7 +6471,7 @@
         <v>120</v>
       </c>
       <c r="G244" t="n">
-        <v>89.9888</v>
+        <v>88.872</v>
       </c>
     </row>
     <row r="245">
@@ -6494,7 +6494,7 @@
         <v>140</v>
       </c>
       <c r="G245" t="n">
-        <v>101.2832</v>
+        <v>101.6184</v>
       </c>
     </row>
     <row r="246">
@@ -6517,7 +6517,7 @@
         <v>160</v>
       </c>
       <c r="G246" t="n">
-        <v>113.6321</v>
+        <v>111.441</v>
       </c>
     </row>
     <row r="247">
@@ -6540,7 +6540,7 @@
         <v>180</v>
       </c>
       <c r="G247" t="n">
-        <v>126.8161</v>
+        <v>125.1104</v>
       </c>
     </row>
     <row r="248">
@@ -6563,7 +6563,7 @@
         <v>200</v>
       </c>
       <c r="G248" t="n">
-        <v>137.1909</v>
+        <v>134.6152</v>
       </c>
     </row>
     <row r="249">
@@ -6586,7 +6586,7 @@
         <v>220</v>
       </c>
       <c r="G249" t="n">
-        <v>149.5944</v>
+        <v>149.8873</v>
       </c>
     </row>
     <row r="250">
@@ -6609,7 +6609,7 @@
         <v>240</v>
       </c>
       <c r="G250" t="n">
-        <v>160.1911</v>
+        <v>159.3067</v>
       </c>
     </row>
     <row r="251">
@@ -6632,7 +6632,7 @@
         <v>260</v>
       </c>
       <c r="G251" t="n">
-        <v>173.1864</v>
+        <v>173.9259</v>
       </c>
     </row>
     <row r="252">
@@ -6655,7 +6655,7 @@
         <v>80</v>
       </c>
       <c r="G252" t="n">
-        <v>65.9013</v>
+        <v>64.9829</v>
       </c>
     </row>
     <row r="253">
@@ -6678,7 +6678,7 @@
         <v>100</v>
       </c>
       <c r="G253" t="n">
-        <v>76.6777</v>
+        <v>77.001</v>
       </c>
     </row>
     <row r="254">
@@ -6701,7 +6701,7 @@
         <v>120</v>
       </c>
       <c r="G254" t="n">
-        <v>90.3728</v>
+        <v>89.7861</v>
       </c>
     </row>
     <row r="255">
@@ -6724,7 +6724,7 @@
         <v>140</v>
       </c>
       <c r="G255" t="n">
-        <v>100.8905</v>
+        <v>99.9203</v>
       </c>
     </row>
     <row r="256">
@@ -6747,7 +6747,7 @@
         <v>160</v>
       </c>
       <c r="G256" t="n">
-        <v>110.8524</v>
+        <v>114.2786</v>
       </c>
     </row>
     <row r="257">
@@ -6770,7 +6770,7 @@
         <v>180</v>
       </c>
       <c r="G257" t="n">
-        <v>124.872</v>
+        <v>126.5816</v>
       </c>
     </row>
     <row r="258">
@@ -6793,7 +6793,7 @@
         <v>200</v>
       </c>
       <c r="G258" t="n">
-        <v>136.8964</v>
+        <v>137.415</v>
       </c>
     </row>
     <row r="259">
@@ -6816,7 +6816,7 @@
         <v>220</v>
       </c>
       <c r="G259" t="n">
-        <v>149.4928</v>
+        <v>148.5709</v>
       </c>
     </row>
     <row r="260">
@@ -6839,7 +6839,7 @@
         <v>240</v>
       </c>
       <c r="G260" t="n">
-        <v>160.9626</v>
+        <v>161.8916</v>
       </c>
     </row>
     <row r="261">
@@ -6862,7 +6862,7 @@
         <v>260</v>
       </c>
       <c r="G261" t="n">
-        <v>172.9821</v>
+        <v>171.7202</v>
       </c>
     </row>
     <row r="262">
@@ -6885,7 +6885,7 @@
         <v>80</v>
       </c>
       <c r="G262" t="n">
-        <v>64.5004</v>
+        <v>65.4182</v>
       </c>
     </row>
     <row r="263">
@@ -6908,7 +6908,7 @@
         <v>100</v>
       </c>
       <c r="G263" t="n">
-        <v>77.0195</v>
+        <v>76.6669</v>
       </c>
     </row>
     <row r="264">
@@ -6931,7 +6931,7 @@
         <v>120</v>
       </c>
       <c r="G264" t="n">
-        <v>86.6492</v>
+        <v>89.8447</v>
       </c>
     </row>
     <row r="265">
@@ -6954,7 +6954,7 @@
         <v>140</v>
       </c>
       <c r="G265" t="n">
-        <v>100.1939</v>
+        <v>100.8623</v>
       </c>
     </row>
     <row r="266">
@@ -6977,7 +6977,7 @@
         <v>160</v>
       </c>
       <c r="G266" t="n">
-        <v>112.7606</v>
+        <v>114.3012</v>
       </c>
     </row>
     <row r="267">
@@ -7000,7 +7000,7 @@
         <v>180</v>
       </c>
       <c r="G267" t="n">
-        <v>123.4613</v>
+        <v>124.6831</v>
       </c>
     </row>
     <row r="268">
@@ -7023,7 +7023,7 @@
         <v>200</v>
       </c>
       <c r="G268" t="n">
-        <v>137.6857</v>
+        <v>135.2343</v>
       </c>
     </row>
     <row r="269">
@@ -7046,7 +7046,7 @@
         <v>220</v>
       </c>
       <c r="G269" t="n">
-        <v>149.8533</v>
+        <v>148.651</v>
       </c>
     </row>
     <row r="270">
@@ -7069,7 +7069,7 @@
         <v>240</v>
       </c>
       <c r="G270" t="n">
-        <v>161.2672</v>
+        <v>162.5141</v>
       </c>
     </row>
     <row r="271">
@@ -7092,7 +7092,7 @@
         <v>260</v>
       </c>
       <c r="G271" t="n">
-        <v>172.6588</v>
+        <v>173.3067</v>
       </c>
     </row>
     <row r="272">
@@ -7115,7 +7115,7 @@
         <v>80</v>
       </c>
       <c r="G272" t="n">
-        <v>64.9002</v>
+        <v>63.6232</v>
       </c>
     </row>
     <row r="273">
@@ -7138,7 +7138,7 @@
         <v>100</v>
       </c>
       <c r="G273" t="n">
-        <v>74.6623</v>
+        <v>77.2596</v>
       </c>
     </row>
     <row r="274">
@@ -7161,7 +7161,7 @@
         <v>120</v>
       </c>
       <c r="G274" t="n">
-        <v>88.3221</v>
+        <v>89.6418</v>
       </c>
     </row>
     <row r="275">
@@ -7184,7 +7184,7 @@
         <v>140</v>
       </c>
       <c r="G275" t="n">
-        <v>101.8324</v>
+        <v>101.9849</v>
       </c>
     </row>
     <row r="276">
@@ -7207,7 +7207,7 @@
         <v>160</v>
       </c>
       <c r="G276" t="n">
-        <v>114.1439</v>
+        <v>112.1117</v>
       </c>
     </row>
     <row r="277">
@@ -7230,7 +7230,7 @@
         <v>180</v>
       </c>
       <c r="G277" t="n">
-        <v>124.4846</v>
+        <v>126.1187</v>
       </c>
     </row>
     <row r="278">
@@ -7253,7 +7253,7 @@
         <v>200</v>
       </c>
       <c r="G278" t="n">
-        <v>138.6101</v>
+        <v>134.7914</v>
       </c>
     </row>
     <row r="279">
@@ -7276,7 +7276,7 @@
         <v>220</v>
       </c>
       <c r="G279" t="n">
-        <v>149.4163</v>
+        <v>149.2766</v>
       </c>
     </row>
     <row r="280">
@@ -7299,7 +7299,7 @@
         <v>240</v>
       </c>
       <c r="G280" t="n">
-        <v>161.6882</v>
+        <v>159.5536</v>
       </c>
     </row>
     <row r="281">
@@ -7322,7 +7322,7 @@
         <v>260</v>
       </c>
       <c r="G281" t="n">
-        <v>173.1004</v>
+        <v>174.1628</v>
       </c>
     </row>
     <row r="282">
@@ -7345,7 +7345,7 @@
         <v>80</v>
       </c>
       <c r="G282" t="n">
-        <v>65.3854</v>
+        <v>65.7621</v>
       </c>
     </row>
     <row r="283">
@@ -7368,7 +7368,7 @@
         <v>100</v>
       </c>
       <c r="G283" t="n">
-        <v>76.6351</v>
+        <v>77.1541</v>
       </c>
     </row>
     <row r="284">
@@ -7391,7 +7391,7 @@
         <v>120</v>
       </c>
       <c r="G284" t="n">
-        <v>89.2278</v>
+        <v>88.7151</v>
       </c>
     </row>
     <row r="285">
@@ -7414,7 +7414,7 @@
         <v>140</v>
       </c>
       <c r="G285" t="n">
-        <v>101.5438</v>
+        <v>101.304</v>
       </c>
     </row>
     <row r="286">
@@ -7437,7 +7437,7 @@
         <v>160</v>
       </c>
       <c r="G286" t="n">
-        <v>112.9613</v>
+        <v>113.1378</v>
       </c>
     </row>
     <row r="287">
@@ -7460,7 +7460,7 @@
         <v>180</v>
       </c>
       <c r="G287" t="n">
-        <v>125.6554</v>
+        <v>125.1017</v>
       </c>
     </row>
     <row r="288">
@@ -7483,7 +7483,7 @@
         <v>200</v>
       </c>
       <c r="G288" t="n">
-        <v>137.978</v>
+        <v>137.2362</v>
       </c>
     </row>
     <row r="289">
@@ -7506,7 +7506,7 @@
         <v>220</v>
       </c>
       <c r="G289" t="n">
-        <v>150.2047</v>
+        <v>149.1074</v>
       </c>
     </row>
     <row r="290">
@@ -7529,7 +7529,7 @@
         <v>240</v>
       </c>
       <c r="G290" t="n">
-        <v>160.3745</v>
+        <v>161.8397</v>
       </c>
     </row>
     <row r="291">
@@ -7552,7 +7552,7 @@
         <v>260</v>
       </c>
       <c r="G291" t="n">
-        <v>172.1143</v>
+        <v>173.9601</v>
       </c>
     </row>
     <row r="292">
@@ -7575,7 +7575,7 @@
         <v>80</v>
       </c>
       <c r="G292" t="n">
-        <v>65.8138</v>
+        <v>65.2791</v>
       </c>
     </row>
     <row r="293">
@@ -7598,7 +7598,7 @@
         <v>100</v>
       </c>
       <c r="G293" t="n">
-        <v>78.1216</v>
+        <v>77.4616</v>
       </c>
     </row>
     <row r="294">
@@ -7621,7 +7621,7 @@
         <v>120</v>
       </c>
       <c r="G294" t="n">
-        <v>89.1583</v>
+        <v>90.6519</v>
       </c>
     </row>
     <row r="295">
@@ -7644,7 +7644,7 @@
         <v>140</v>
       </c>
       <c r="G295" t="n">
-        <v>99.1909</v>
+        <v>101.5628</v>
       </c>
     </row>
     <row r="296">
@@ -7667,7 +7667,7 @@
         <v>160</v>
       </c>
       <c r="G296" t="n">
-        <v>111.5362</v>
+        <v>113.0722</v>
       </c>
     </row>
     <row r="297">
@@ -7690,7 +7690,7 @@
         <v>180</v>
       </c>
       <c r="G297" t="n">
-        <v>126.3907</v>
+        <v>125.337</v>
       </c>
     </row>
     <row r="298">
@@ -7713,7 +7713,7 @@
         <v>200</v>
       </c>
       <c r="G298" t="n">
-        <v>136.7231</v>
+        <v>135.5805</v>
       </c>
     </row>
     <row r="299">
@@ -7736,7 +7736,7 @@
         <v>220</v>
       </c>
       <c r="G299" t="n">
-        <v>149.4771</v>
+        <v>147.9388</v>
       </c>
     </row>
     <row r="300">
@@ -7759,7 +7759,7 @@
         <v>240</v>
       </c>
       <c r="G300" t="n">
-        <v>160.6909</v>
+        <v>161.8497</v>
       </c>
     </row>
     <row r="301">
@@ -7782,7 +7782,7 @@
         <v>260</v>
       </c>
       <c r="G301" t="n">
-        <v>174.5174</v>
+        <v>173.3829</v>
       </c>
     </row>
     <row r="302">
@@ -7805,7 +7805,7 @@
         <v>80</v>
       </c>
       <c r="G302" t="n">
-        <v>64.4115</v>
+        <v>63.3042</v>
       </c>
     </row>
     <row r="303">
@@ -7828,7 +7828,7 @@
         <v>100</v>
       </c>
       <c r="G303" t="n">
-        <v>77.7809</v>
+        <v>79.047</v>
       </c>
     </row>
     <row r="304">
@@ -7851,7 +7851,7 @@
         <v>120</v>
       </c>
       <c r="G304" t="n">
-        <v>89.5217</v>
+        <v>89.6661</v>
       </c>
     </row>
     <row r="305">
@@ -7874,7 +7874,7 @@
         <v>140</v>
       </c>
       <c r="G305" t="n">
-        <v>101.1107</v>
+        <v>103.2952</v>
       </c>
     </row>
     <row r="306">
@@ -7897,7 +7897,7 @@
         <v>160</v>
       </c>
       <c r="G306" t="n">
-        <v>113.3378</v>
+        <v>113.5521</v>
       </c>
     </row>
     <row r="307">
@@ -7920,7 +7920,7 @@
         <v>180</v>
       </c>
       <c r="G307" t="n">
-        <v>126.4637</v>
+        <v>126.1063</v>
       </c>
     </row>
     <row r="308">
@@ -7943,7 +7943,7 @@
         <v>200</v>
       </c>
       <c r="G308" t="n">
-        <v>138.3704</v>
+        <v>137.3777</v>
       </c>
     </row>
     <row r="309">
@@ -7966,7 +7966,7 @@
         <v>220</v>
       </c>
       <c r="G309" t="n">
-        <v>148.948</v>
+        <v>147.6414</v>
       </c>
     </row>
     <row r="310">
@@ -7989,7 +7989,7 @@
         <v>240</v>
       </c>
       <c r="G310" t="n">
-        <v>160.5092</v>
+        <v>161.8029</v>
       </c>
     </row>
     <row r="311">
@@ -8012,7 +8012,7 @@
         <v>260</v>
       </c>
       <c r="G311" t="n">
-        <v>174.5756</v>
+        <v>173.5415</v>
       </c>
     </row>
     <row r="312">
@@ -8035,7 +8035,7 @@
         <v>80</v>
       </c>
       <c r="G312" t="n">
-        <v>65.8634</v>
+        <v>64.6135</v>
       </c>
     </row>
     <row r="313">
@@ -8058,7 +8058,7 @@
         <v>100</v>
       </c>
       <c r="G313" t="n">
-        <v>77.7427</v>
+        <v>76.9468</v>
       </c>
     </row>
     <row r="314">
@@ -8081,7 +8081,7 @@
         <v>120</v>
       </c>
       <c r="G314" t="n">
-        <v>87.8392</v>
+        <v>88.4274</v>
       </c>
     </row>
     <row r="315">
@@ -8104,7 +8104,7 @@
         <v>140</v>
       </c>
       <c r="G315" t="n">
-        <v>99.2908</v>
+        <v>101.3084</v>
       </c>
     </row>
     <row r="316">
@@ -8127,7 +8127,7 @@
         <v>160</v>
       </c>
       <c r="G316" t="n">
-        <v>112.8867</v>
+        <v>111.5657</v>
       </c>
     </row>
     <row r="317">
@@ -8150,7 +8150,7 @@
         <v>180</v>
       </c>
       <c r="G317" t="n">
-        <v>125.2568</v>
+        <v>124.1711</v>
       </c>
     </row>
     <row r="318">
@@ -8173,7 +8173,7 @@
         <v>200</v>
       </c>
       <c r="G318" t="n">
-        <v>136.5091</v>
+        <v>137.0292</v>
       </c>
     </row>
     <row r="319">
@@ -8196,7 +8196,7 @@
         <v>220</v>
       </c>
       <c r="G319" t="n">
-        <v>148.8575</v>
+        <v>149.666</v>
       </c>
     </row>
     <row r="320">
@@ -8219,7 +8219,7 @@
         <v>240</v>
       </c>
       <c r="G320" t="n">
-        <v>159.8268</v>
+        <v>159.2477</v>
       </c>
     </row>
     <row r="321">
@@ -8242,7 +8242,7 @@
         <v>260</v>
       </c>
       <c r="G321" t="n">
-        <v>173.0825</v>
+        <v>173.6764</v>
       </c>
     </row>
     <row r="322">
@@ -8265,7 +8265,7 @@
         <v>80</v>
       </c>
       <c r="G322" t="n">
-        <v>61.8751</v>
+        <v>64.1922</v>
       </c>
     </row>
     <row r="323">
@@ -8288,7 +8288,7 @@
         <v>100</v>
       </c>
       <c r="G323" t="n">
-        <v>76.6058</v>
+        <v>77.274</v>
       </c>
     </row>
     <row r="324">
@@ -8311,7 +8311,7 @@
         <v>120</v>
       </c>
       <c r="G324" t="n">
-        <v>89.6867</v>
+        <v>88.3799</v>
       </c>
     </row>
     <row r="325">
@@ -8334,7 +8334,7 @@
         <v>140</v>
       </c>
       <c r="G325" t="n">
-        <v>102.5628</v>
+        <v>101.5153</v>
       </c>
     </row>
     <row r="326">
@@ -8357,7 +8357,7 @@
         <v>160</v>
       </c>
       <c r="G326" t="n">
-        <v>113.7066</v>
+        <v>112.1359</v>
       </c>
     </row>
     <row r="327">
@@ -8380,7 +8380,7 @@
         <v>180</v>
       </c>
       <c r="G327" t="n">
-        <v>124.5262</v>
+        <v>124.395</v>
       </c>
     </row>
     <row r="328">
@@ -8403,7 +8403,7 @@
         <v>200</v>
       </c>
       <c r="G328" t="n">
-        <v>136.3705</v>
+        <v>137.0312</v>
       </c>
     </row>
     <row r="329">
@@ -8426,7 +8426,7 @@
         <v>220</v>
       </c>
       <c r="G329" t="n">
-        <v>149.1493</v>
+        <v>148.7667</v>
       </c>
     </row>
     <row r="330">
@@ -8449,7 +8449,7 @@
         <v>240</v>
       </c>
       <c r="G330" t="n">
-        <v>161.2044</v>
+        <v>161.5188</v>
       </c>
     </row>
     <row r="331">
@@ -8472,7 +8472,7 @@
         <v>260</v>
       </c>
       <c r="G331" t="n">
-        <v>172.8974</v>
+        <v>173.0444</v>
       </c>
     </row>
     <row r="332">
@@ -8495,7 +8495,7 @@
         <v>80</v>
       </c>
       <c r="G332" t="n">
-        <v>63.7145</v>
+        <v>63.3068</v>
       </c>
     </row>
     <row r="333">
@@ -8518,7 +8518,7 @@
         <v>100</v>
       </c>
       <c r="G333" t="n">
-        <v>78.6967</v>
+        <v>76.639</v>
       </c>
     </row>
     <row r="334">
@@ -8541,7 +8541,7 @@
         <v>120</v>
       </c>
       <c r="G334" t="n">
-        <v>89.094</v>
+        <v>88.0617</v>
       </c>
     </row>
     <row r="335">
@@ -8564,7 +8564,7 @@
         <v>140</v>
       </c>
       <c r="G335" t="n">
-        <v>100.5785</v>
+        <v>102.3084</v>
       </c>
     </row>
     <row r="336">
@@ -8587,7 +8587,7 @@
         <v>160</v>
       </c>
       <c r="G336" t="n">
-        <v>113.111</v>
+        <v>113.391</v>
       </c>
     </row>
     <row r="337">
@@ -8610,7 +8610,7 @@
         <v>180</v>
       </c>
       <c r="G337" t="n">
-        <v>123.3365</v>
+        <v>125.6031</v>
       </c>
     </row>
     <row r="338">
@@ -8633,7 +8633,7 @@
         <v>200</v>
       </c>
       <c r="G338" t="n">
-        <v>134.4122</v>
+        <v>137.8456</v>
       </c>
     </row>
     <row r="339">
@@ -8656,7 +8656,7 @@
         <v>220</v>
       </c>
       <c r="G339" t="n">
-        <v>148.3773</v>
+        <v>150.803</v>
       </c>
     </row>
     <row r="340">
@@ -8679,7 +8679,7 @@
         <v>240</v>
       </c>
       <c r="G340" t="n">
-        <v>161.2588</v>
+        <v>159.4961</v>
       </c>
     </row>
     <row r="341">
@@ -8702,7 +8702,7 @@
         <v>260</v>
       </c>
       <c r="G341" t="n">
-        <v>172.2696</v>
+        <v>174.5303</v>
       </c>
     </row>
     <row r="342">
@@ -8725,7 +8725,7 @@
         <v>80</v>
       </c>
       <c r="G342" t="n">
-        <v>65.4863</v>
+        <v>65.5139</v>
       </c>
     </row>
     <row r="343">
@@ -8748,7 +8748,7 @@
         <v>100</v>
       </c>
       <c r="G343" t="n">
-        <v>78.6743</v>
+        <v>76.3886</v>
       </c>
     </row>
     <row r="344">
@@ -8771,7 +8771,7 @@
         <v>120</v>
       </c>
       <c r="G344" t="n">
-        <v>89.1955</v>
+        <v>90.1856</v>
       </c>
     </row>
     <row r="345">
@@ -8794,7 +8794,7 @@
         <v>140</v>
       </c>
       <c r="G345" t="n">
-        <v>101.8012</v>
+        <v>100.2156</v>
       </c>
     </row>
     <row r="346">
@@ -8817,7 +8817,7 @@
         <v>160</v>
       </c>
       <c r="G346" t="n">
-        <v>112.5904</v>
+        <v>112.7515</v>
       </c>
     </row>
     <row r="347">
@@ -8840,7 +8840,7 @@
         <v>180</v>
       </c>
       <c r="G347" t="n">
-        <v>124.9303</v>
+        <v>124.463</v>
       </c>
     </row>
     <row r="348">
@@ -8863,7 +8863,7 @@
         <v>200</v>
       </c>
       <c r="G348" t="n">
-        <v>137.732</v>
+        <v>136.6281</v>
       </c>
     </row>
     <row r="349">
@@ -8886,7 +8886,7 @@
         <v>220</v>
       </c>
       <c r="G349" t="n">
-        <v>147.423</v>
+        <v>148.741</v>
       </c>
     </row>
     <row r="350">
@@ -8909,7 +8909,7 @@
         <v>240</v>
       </c>
       <c r="G350" t="n">
-        <v>161.5538</v>
+        <v>161.7436</v>
       </c>
     </row>
     <row r="351">
@@ -8932,7 +8932,7 @@
         <v>260</v>
       </c>
       <c r="G351" t="n">
-        <v>172.1939</v>
+        <v>173.8879</v>
       </c>
     </row>
     <row r="352">
@@ -8955,7 +8955,7 @@
         <v>80</v>
       </c>
       <c r="G352" t="n">
-        <v>63.9479</v>
+        <v>64.5545</v>
       </c>
     </row>
     <row r="353">
@@ -8978,7 +8978,7 @@
         <v>100</v>
       </c>
       <c r="G353" t="n">
-        <v>75.5046</v>
+        <v>77.1025</v>
       </c>
     </row>
     <row r="354">
@@ -9001,7 +9001,7 @@
         <v>120</v>
       </c>
       <c r="G354" t="n">
-        <v>89.4634</v>
+        <v>89.5482</v>
       </c>
     </row>
     <row r="355">
@@ -9024,7 +9024,7 @@
         <v>140</v>
       </c>
       <c r="G355" t="n">
-        <v>102.3644</v>
+        <v>100.975</v>
       </c>
     </row>
     <row r="356">
@@ -9047,7 +9047,7 @@
         <v>160</v>
       </c>
       <c r="G356" t="n">
-        <v>112.0482</v>
+        <v>112.3654</v>
       </c>
     </row>
     <row r="357">
@@ -9070,7 +9070,7 @@
         <v>180</v>
       </c>
       <c r="G357" t="n">
-        <v>126.3392</v>
+        <v>124.894</v>
       </c>
     </row>
     <row r="358">
@@ -9093,7 +9093,7 @@
         <v>200</v>
       </c>
       <c r="G358" t="n">
-        <v>138.7057</v>
+        <v>136.0826</v>
       </c>
     </row>
     <row r="359">
@@ -9116,7 +9116,7 @@
         <v>220</v>
       </c>
       <c r="G359" t="n">
-        <v>149.1634</v>
+        <v>147.4704</v>
       </c>
     </row>
     <row r="360">
@@ -9139,7 +9139,7 @@
         <v>240</v>
       </c>
       <c r="G360" t="n">
-        <v>161.44</v>
+        <v>162.1617</v>
       </c>
     </row>
     <row r="361">
@@ -9162,7 +9162,7 @@
         <v>260</v>
       </c>
       <c r="G361" t="n">
-        <v>171.6369</v>
+        <v>172.2663</v>
       </c>
     </row>
     <row r="362">
@@ -9185,7 +9185,7 @@
         <v>80</v>
       </c>
       <c r="G362" t="n">
-        <v>64.0278</v>
+        <v>62.9248</v>
       </c>
     </row>
     <row r="363">
@@ -9208,7 +9208,7 @@
         <v>100</v>
       </c>
       <c r="G363" t="n">
-        <v>76.6597</v>
+        <v>77.0316</v>
       </c>
     </row>
     <row r="364">
@@ -9231,7 +9231,7 @@
         <v>120</v>
       </c>
       <c r="G364" t="n">
-        <v>88.4154</v>
+        <v>88.0836</v>
       </c>
     </row>
     <row r="365">
@@ -9254,7 +9254,7 @@
         <v>140</v>
       </c>
       <c r="G365" t="n">
-        <v>99.8801</v>
+        <v>101.3877</v>
       </c>
     </row>
     <row r="366">
@@ -9277,7 +9277,7 @@
         <v>160</v>
       </c>
       <c r="G366" t="n">
-        <v>113.0584</v>
+        <v>113.4934</v>
       </c>
     </row>
     <row r="367">
@@ -9300,7 +9300,7 @@
         <v>180</v>
       </c>
       <c r="G367" t="n">
-        <v>125.3437</v>
+        <v>123.4321</v>
       </c>
     </row>
     <row r="368">
@@ -9323,7 +9323,7 @@
         <v>200</v>
       </c>
       <c r="G368" t="n">
-        <v>137.5953</v>
+        <v>135.9454</v>
       </c>
     </row>
     <row r="369">
@@ -9346,7 +9346,7 @@
         <v>220</v>
       </c>
       <c r="G369" t="n">
-        <v>149.5957</v>
+        <v>150.1492</v>
       </c>
     </row>
     <row r="370">
@@ -9369,7 +9369,7 @@
         <v>240</v>
       </c>
       <c r="G370" t="n">
-        <v>161.4812</v>
+        <v>161.7773</v>
       </c>
     </row>
     <row r="371">
@@ -9392,7 +9392,7 @@
         <v>260</v>
       </c>
       <c r="G371" t="n">
-        <v>171.0168</v>
+        <v>173.591</v>
       </c>
     </row>
     <row r="372">
@@ -9415,7 +9415,7 @@
         <v>80</v>
       </c>
       <c r="G372" t="n">
-        <v>65.9099</v>
+        <v>64.2693</v>
       </c>
     </row>
     <row r="373">
@@ -9438,7 +9438,7 @@
         <v>100</v>
       </c>
       <c r="G373" t="n">
-        <v>76.7957</v>
+        <v>77.7823</v>
       </c>
     </row>
     <row r="374">
@@ -9461,7 +9461,7 @@
         <v>120</v>
       </c>
       <c r="G374" t="n">
-        <v>87.8313</v>
+        <v>89.3842</v>
       </c>
     </row>
     <row r="375">
@@ -9484,7 +9484,7 @@
         <v>140</v>
       </c>
       <c r="G375" t="n">
-        <v>100.5632</v>
+        <v>102.0066</v>
       </c>
     </row>
     <row r="376">
@@ -9507,7 +9507,7 @@
         <v>160</v>
       </c>
       <c r="G376" t="n">
-        <v>111.3879</v>
+        <v>113.7567</v>
       </c>
     </row>
     <row r="377">
@@ -9530,7 +9530,7 @@
         <v>180</v>
       </c>
       <c r="G377" t="n">
-        <v>124.2023</v>
+        <v>123.3344</v>
       </c>
     </row>
     <row r="378">
@@ -9553,7 +9553,7 @@
         <v>200</v>
       </c>
       <c r="G378" t="n">
-        <v>137.7697</v>
+        <v>137.8693</v>
       </c>
     </row>
     <row r="379">
@@ -9576,7 +9576,7 @@
         <v>220</v>
       </c>
       <c r="G379" t="n">
-        <v>148.0954</v>
+        <v>149.4696</v>
       </c>
     </row>
     <row r="380">
@@ -9599,7 +9599,7 @@
         <v>240</v>
       </c>
       <c r="G380" t="n">
-        <v>161.8205</v>
+        <v>162.8226</v>
       </c>
     </row>
     <row r="381">
@@ -9622,7 +9622,7 @@
         <v>260</v>
       </c>
       <c r="G381" t="n">
-        <v>173.1645</v>
+        <v>171.2422</v>
       </c>
     </row>
     <row r="382">
@@ -9645,7 +9645,7 @@
         <v>80</v>
       </c>
       <c r="G382" t="n">
-        <v>65.2108</v>
+        <v>64.9175</v>
       </c>
     </row>
     <row r="383">
@@ -9668,7 +9668,7 @@
         <v>100</v>
       </c>
       <c r="G383" t="n">
-        <v>76.7493</v>
+        <v>77.6227</v>
       </c>
     </row>
     <row r="384">
@@ -9691,7 +9691,7 @@
         <v>120</v>
       </c>
       <c r="G384" t="n">
-        <v>90.0818</v>
+        <v>88.9153</v>
       </c>
     </row>
     <row r="385">
@@ -9714,7 +9714,7 @@
         <v>140</v>
       </c>
       <c r="G385" t="n">
-        <v>98.7631</v>
+        <v>100.9198</v>
       </c>
     </row>
     <row r="386">
@@ -9737,7 +9737,7 @@
         <v>160</v>
       </c>
       <c r="G386" t="n">
-        <v>112.1064</v>
+        <v>113.6019</v>
       </c>
     </row>
     <row r="387">
@@ -9760,7 +9760,7 @@
         <v>180</v>
       </c>
       <c r="G387" t="n">
-        <v>124.3477</v>
+        <v>124.5722</v>
       </c>
     </row>
     <row r="388">
@@ -9783,7 +9783,7 @@
         <v>200</v>
       </c>
       <c r="G388" t="n">
-        <v>138.5949</v>
+        <v>136.3511</v>
       </c>
     </row>
     <row r="389">
@@ -9806,7 +9806,7 @@
         <v>220</v>
       </c>
       <c r="G389" t="n">
-        <v>150.385</v>
+        <v>147.2522</v>
       </c>
     </row>
     <row r="390">
@@ -9829,7 +9829,7 @@
         <v>240</v>
       </c>
       <c r="G390" t="n">
-        <v>161.1511</v>
+        <v>160.0816</v>
       </c>
     </row>
     <row r="391">
@@ -9852,7 +9852,7 @@
         <v>260</v>
       </c>
       <c r="G391" t="n">
-        <v>174.3804</v>
+        <v>172.8405</v>
       </c>
     </row>
     <row r="392">
@@ -9875,7 +9875,7 @@
         <v>80</v>
       </c>
       <c r="G392" t="n">
-        <v>66.2007</v>
+        <v>63.8146</v>
       </c>
     </row>
     <row r="393">
@@ -9898,7 +9898,7 @@
         <v>100</v>
       </c>
       <c r="G393" t="n">
-        <v>77.9549</v>
+        <v>75.9136</v>
       </c>
     </row>
     <row r="394">
@@ -9921,7 +9921,7 @@
         <v>120</v>
       </c>
       <c r="G394" t="n">
-        <v>88.5788</v>
+        <v>87.5475</v>
       </c>
     </row>
     <row r="395">
@@ -9944,7 +9944,7 @@
         <v>140</v>
       </c>
       <c r="G395" t="n">
-        <v>101.1955</v>
+        <v>100.4408</v>
       </c>
     </row>
     <row r="396">
@@ -9967,7 +9967,7 @@
         <v>160</v>
       </c>
       <c r="G396" t="n">
-        <v>111.7527</v>
+        <v>111.6467</v>
       </c>
     </row>
     <row r="397">
@@ -9990,7 +9990,7 @@
         <v>180</v>
       </c>
       <c r="G397" t="n">
-        <v>123.5924</v>
+        <v>123.7201</v>
       </c>
     </row>
     <row r="398">
@@ -10013,7 +10013,7 @@
         <v>200</v>
       </c>
       <c r="G398" t="n">
-        <v>136.6959</v>
+        <v>139.3397</v>
       </c>
     </row>
     <row r="399">
@@ -10036,7 +10036,7 @@
         <v>220</v>
       </c>
       <c r="G399" t="n">
-        <v>148.1381</v>
+        <v>149.0309</v>
       </c>
     </row>
     <row r="400">
@@ -10059,7 +10059,7 @@
         <v>240</v>
       </c>
       <c r="G400" t="n">
-        <v>161.9026</v>
+        <v>160.5216</v>
       </c>
     </row>
     <row r="401">
@@ -10082,7 +10082,7 @@
         <v>260</v>
       </c>
       <c r="G401" t="n">
-        <v>173.5122</v>
+        <v>173.5787</v>
       </c>
     </row>
     <row r="402">
@@ -10105,7 +10105,7 @@
         <v>80</v>
       </c>
       <c r="G402" t="n">
-        <v>65.5621</v>
+        <v>65.3458</v>
       </c>
     </row>
     <row r="403">
@@ -10128,7 +10128,7 @@
         <v>100</v>
       </c>
       <c r="G403" t="n">
-        <v>75.2284</v>
+        <v>79.1394</v>
       </c>
     </row>
     <row r="404">
@@ -10151,7 +10151,7 @@
         <v>120</v>
       </c>
       <c r="G404" t="n">
-        <v>87.8091</v>
+        <v>88.071</v>
       </c>
     </row>
     <row r="405">
@@ -10174,7 +10174,7 @@
         <v>140</v>
       </c>
       <c r="G405" t="n">
-        <v>99.6589</v>
+        <v>100.4718</v>
       </c>
     </row>
     <row r="406">
@@ -10197,7 +10197,7 @@
         <v>160</v>
       </c>
       <c r="G406" t="n">
-        <v>112.3942</v>
+        <v>114.6231</v>
       </c>
     </row>
     <row r="407">
@@ -10220,7 +10220,7 @@
         <v>180</v>
       </c>
       <c r="G407" t="n">
-        <v>125.1754</v>
+        <v>126.0336</v>
       </c>
     </row>
     <row r="408">
@@ -10243,7 +10243,7 @@
         <v>200</v>
       </c>
       <c r="G408" t="n">
-        <v>136.5631</v>
+        <v>138.3537</v>
       </c>
     </row>
     <row r="409">
@@ -10266,7 +10266,7 @@
         <v>220</v>
       </c>
       <c r="G409" t="n">
-        <v>149.7124</v>
+        <v>149.2033</v>
       </c>
     </row>
     <row r="410">
@@ -10289,7 +10289,7 @@
         <v>240</v>
       </c>
       <c r="G410" t="n">
-        <v>162.726</v>
+        <v>160.5201</v>
       </c>
     </row>
     <row r="411">
@@ -10312,7 +10312,7 @@
         <v>260</v>
       </c>
       <c r="G411" t="n">
-        <v>174.449</v>
+        <v>171.6625</v>
       </c>
     </row>
     <row r="412">
@@ -10335,7 +10335,7 @@
         <v>80</v>
       </c>
       <c r="G412" t="n">
-        <v>64.5397</v>
+        <v>64.597</v>
       </c>
     </row>
     <row r="413">
@@ -10358,7 +10358,7 @@
         <v>100</v>
       </c>
       <c r="G413" t="n">
-        <v>76.9601</v>
+        <v>77.8182</v>
       </c>
     </row>
     <row r="414">
@@ -10381,7 +10381,7 @@
         <v>120</v>
       </c>
       <c r="G414" t="n">
-        <v>88.347</v>
+        <v>89.3003</v>
       </c>
     </row>
     <row r="415">
@@ -10404,7 +10404,7 @@
         <v>140</v>
       </c>
       <c r="G415" t="n">
-        <v>101.2623</v>
+        <v>99.0693</v>
       </c>
     </row>
     <row r="416">
@@ -10427,7 +10427,7 @@
         <v>160</v>
       </c>
       <c r="G416" t="n">
-        <v>112.7059</v>
+        <v>113.2601</v>
       </c>
     </row>
     <row r="417">
@@ -10450,7 +10450,7 @@
         <v>180</v>
       </c>
       <c r="G417" t="n">
-        <v>126.0819</v>
+        <v>125.0442</v>
       </c>
     </row>
     <row r="418">
@@ -10473,7 +10473,7 @@
         <v>200</v>
       </c>
       <c r="G418" t="n">
-        <v>137.816</v>
+        <v>137.507</v>
       </c>
     </row>
     <row r="419">
@@ -10496,7 +10496,7 @@
         <v>220</v>
       </c>
       <c r="G419" t="n">
-        <v>150.1725</v>
+        <v>149.5214</v>
       </c>
     </row>
     <row r="420">
@@ -10519,7 +10519,7 @@
         <v>240</v>
       </c>
       <c r="G420" t="n">
-        <v>161.5367</v>
+        <v>159.5684</v>
       </c>
     </row>
     <row r="421">
@@ -10542,7 +10542,7 @@
         <v>260</v>
       </c>
       <c r="G421" t="n">
-        <v>172.7038</v>
+        <v>173.1266</v>
       </c>
     </row>
     <row r="422">
@@ -10565,7 +10565,7 @@
         <v>80</v>
       </c>
       <c r="G422" t="n">
-        <v>65.5473</v>
+        <v>64.9563</v>
       </c>
     </row>
     <row r="423">
@@ -10588,7 +10588,7 @@
         <v>100</v>
       </c>
       <c r="G423" t="n">
-        <v>78.638</v>
+        <v>76.4397</v>
       </c>
     </row>
     <row r="424">
@@ -10611,7 +10611,7 @@
         <v>120</v>
       </c>
       <c r="G424" t="n">
-        <v>88.4134</v>
+        <v>87.5522</v>
       </c>
     </row>
     <row r="425">
@@ -10634,7 +10634,7 @@
         <v>140</v>
       </c>
       <c r="G425" t="n">
-        <v>102.3555</v>
+        <v>101.4166</v>
       </c>
     </row>
     <row r="426">
@@ -10657,7 +10657,7 @@
         <v>160</v>
       </c>
       <c r="G426" t="n">
-        <v>111.5393</v>
+        <v>111.4967</v>
       </c>
     </row>
     <row r="427">
@@ -10680,7 +10680,7 @@
         <v>180</v>
       </c>
       <c r="G427" t="n">
-        <v>124.9619</v>
+        <v>124.4404</v>
       </c>
     </row>
     <row r="428">
@@ -10703,7 +10703,7 @@
         <v>200</v>
       </c>
       <c r="G428" t="n">
-        <v>138.7122</v>
+        <v>135.9624</v>
       </c>
     </row>
     <row r="429">
@@ -10726,7 +10726,7 @@
         <v>220</v>
       </c>
       <c r="G429" t="n">
-        <v>150.9769</v>
+        <v>148.4597</v>
       </c>
     </row>
     <row r="430">
@@ -10749,7 +10749,7 @@
         <v>240</v>
       </c>
       <c r="G430" t="n">
-        <v>160.6542</v>
+        <v>161.6576</v>
       </c>
     </row>
     <row r="431">
@@ -10772,7 +10772,7 @@
         <v>260</v>
       </c>
       <c r="G431" t="n">
-        <v>174.2979</v>
+        <v>173.3425</v>
       </c>
     </row>
     <row r="432">
@@ -10795,7 +10795,7 @@
         <v>80</v>
       </c>
       <c r="G432" t="n">
-        <v>65.496</v>
+        <v>67.1288</v>
       </c>
     </row>
     <row r="433">
@@ -10818,7 +10818,7 @@
         <v>100</v>
       </c>
       <c r="G433" t="n">
-        <v>77.0948</v>
+        <v>76.4743</v>
       </c>
     </row>
     <row r="434">
@@ -10841,7 +10841,7 @@
         <v>120</v>
       </c>
       <c r="G434" t="n">
-        <v>87.8689</v>
+        <v>88.2038</v>
       </c>
     </row>
     <row r="435">
@@ -10864,7 +10864,7 @@
         <v>140</v>
       </c>
       <c r="G435" t="n">
-        <v>100.7584</v>
+        <v>100.2924</v>
       </c>
     </row>
     <row r="436">
@@ -10887,7 +10887,7 @@
         <v>160</v>
       </c>
       <c r="G436" t="n">
-        <v>111.7198</v>
+        <v>113.8836</v>
       </c>
     </row>
     <row r="437">
@@ -10910,7 +10910,7 @@
         <v>180</v>
       </c>
       <c r="G437" t="n">
-        <v>126.052</v>
+        <v>126.398</v>
       </c>
     </row>
     <row r="438">
@@ -10933,7 +10933,7 @@
         <v>200</v>
       </c>
       <c r="G438" t="n">
-        <v>137.29</v>
+        <v>137.6847</v>
       </c>
     </row>
     <row r="439">
@@ -10956,7 +10956,7 @@
         <v>220</v>
       </c>
       <c r="G439" t="n">
-        <v>149.6385</v>
+        <v>147.7241</v>
       </c>
     </row>
     <row r="440">
@@ -10979,7 +10979,7 @@
         <v>240</v>
       </c>
       <c r="G440" t="n">
-        <v>161.775</v>
+        <v>160.6687</v>
       </c>
     </row>
     <row r="441">
@@ -11002,7 +11002,7 @@
         <v>260</v>
       </c>
       <c r="G441" t="n">
-        <v>173.2571</v>
+        <v>171.7154</v>
       </c>
     </row>
     <row r="442">
@@ -11025,7 +11025,7 @@
         <v>80</v>
       </c>
       <c r="G442" t="n">
-        <v>64.5521</v>
+        <v>65.7935</v>
       </c>
     </row>
     <row r="443">
@@ -11048,7 +11048,7 @@
         <v>100</v>
       </c>
       <c r="G443" t="n">
-        <v>78.0242</v>
+        <v>75.9282</v>
       </c>
     </row>
     <row r="444">
@@ -11071,7 +11071,7 @@
         <v>120</v>
       </c>
       <c r="G444" t="n">
-        <v>88.9809</v>
+        <v>88.7028</v>
       </c>
     </row>
     <row r="445">
@@ -11094,7 +11094,7 @@
         <v>140</v>
       </c>
       <c r="G445" t="n">
-        <v>98.8267</v>
+        <v>99.7126</v>
       </c>
     </row>
     <row r="446">
@@ -11117,7 +11117,7 @@
         <v>160</v>
       </c>
       <c r="G446" t="n">
-        <v>113.4148</v>
+        <v>110.916</v>
       </c>
     </row>
     <row r="447">
@@ -11140,7 +11140,7 @@
         <v>180</v>
       </c>
       <c r="G447" t="n">
-        <v>124.0001</v>
+        <v>127.3399</v>
       </c>
     </row>
     <row r="448">
@@ -11163,7 +11163,7 @@
         <v>200</v>
       </c>
       <c r="G448" t="n">
-        <v>135.7724</v>
+        <v>138.0992</v>
       </c>
     </row>
     <row r="449">
@@ -11186,7 +11186,7 @@
         <v>220</v>
       </c>
       <c r="G449" t="n">
-        <v>148.1349</v>
+        <v>149.2458</v>
       </c>
     </row>
     <row r="450">
@@ -11209,7 +11209,7 @@
         <v>240</v>
       </c>
       <c r="G450" t="n">
-        <v>160.5819</v>
+        <v>160.4413</v>
       </c>
     </row>
     <row r="451">
@@ -11232,7 +11232,7 @@
         <v>260</v>
       </c>
       <c r="G451" t="n">
-        <v>173.0917</v>
+        <v>173.4352</v>
       </c>
     </row>
     <row r="452">
@@ -11255,7 +11255,7 @@
         <v>80</v>
       </c>
       <c r="G452" t="n">
-        <v>64.5163</v>
+        <v>65.3731</v>
       </c>
     </row>
     <row r="453">
@@ -11278,7 +11278,7 @@
         <v>100</v>
       </c>
       <c r="G453" t="n">
-        <v>77.4876</v>
+        <v>75.4922</v>
       </c>
     </row>
     <row r="454">
@@ -11301,7 +11301,7 @@
         <v>120</v>
       </c>
       <c r="G454" t="n">
-        <v>89.3845</v>
+        <v>89.7123</v>
       </c>
     </row>
     <row r="455">
@@ -11324,7 +11324,7 @@
         <v>140</v>
       </c>
       <c r="G455" t="n">
-        <v>101.0026</v>
+        <v>98.6375</v>
       </c>
     </row>
     <row r="456">
@@ -11347,7 +11347,7 @@
         <v>160</v>
       </c>
       <c r="G456" t="n">
-        <v>114.5473</v>
+        <v>111.508</v>
       </c>
     </row>
     <row r="457">
@@ -11370,7 +11370,7 @@
         <v>180</v>
       </c>
       <c r="G457" t="n">
-        <v>125.2373</v>
+        <v>125.4285</v>
       </c>
     </row>
     <row r="458">
@@ -11393,7 +11393,7 @@
         <v>200</v>
       </c>
       <c r="G458" t="n">
-        <v>138.0473</v>
+        <v>138.7318</v>
       </c>
     </row>
     <row r="459">
@@ -11416,7 +11416,7 @@
         <v>220</v>
       </c>
       <c r="G459" t="n">
-        <v>148.3968</v>
+        <v>149.8788</v>
       </c>
     </row>
     <row r="460">
@@ -11439,7 +11439,7 @@
         <v>240</v>
       </c>
       <c r="G460" t="n">
-        <v>161.5097</v>
+        <v>161.654</v>
       </c>
     </row>
     <row r="461">
@@ -11462,7 +11462,7 @@
         <v>260</v>
       </c>
       <c r="G461" t="n">
-        <v>172.0794</v>
+        <v>173.0378</v>
       </c>
     </row>
     <row r="462">
@@ -11485,7 +11485,7 @@
         <v>80</v>
       </c>
       <c r="G462" t="n">
-        <v>64.833</v>
+        <v>64.7555</v>
       </c>
     </row>
     <row r="463">
@@ -11508,7 +11508,7 @@
         <v>100</v>
       </c>
       <c r="G463" t="n">
-        <v>76.4227</v>
+        <v>74.5115</v>
       </c>
     </row>
     <row r="464">
@@ -11531,7 +11531,7 @@
         <v>120</v>
       </c>
       <c r="G464" t="n">
-        <v>88.4188</v>
+        <v>88.0551</v>
       </c>
     </row>
     <row r="465">
@@ -11554,7 +11554,7 @@
         <v>140</v>
       </c>
       <c r="G465" t="n">
-        <v>101.4296</v>
+        <v>100.2048</v>
       </c>
     </row>
     <row r="466">
@@ -11577,7 +11577,7 @@
         <v>160</v>
       </c>
       <c r="G466" t="n">
-        <v>112.1834</v>
+        <v>112.6361</v>
       </c>
     </row>
     <row r="467">
@@ -11600,7 +11600,7 @@
         <v>180</v>
       </c>
       <c r="G467" t="n">
-        <v>125.4603</v>
+        <v>128.0573</v>
       </c>
     </row>
     <row r="468">
@@ -11623,7 +11623,7 @@
         <v>200</v>
       </c>
       <c r="G468" t="n">
-        <v>137.3155</v>
+        <v>137.4004</v>
       </c>
     </row>
     <row r="469">
@@ -11646,7 +11646,7 @@
         <v>220</v>
       </c>
       <c r="G469" t="n">
-        <v>149.2537</v>
+        <v>149.7872</v>
       </c>
     </row>
     <row r="470">
@@ -11669,7 +11669,7 @@
         <v>240</v>
       </c>
       <c r="G470" t="n">
-        <v>162.2495</v>
+        <v>159.2254</v>
       </c>
     </row>
     <row r="471">
@@ -11692,7 +11692,7 @@
         <v>260</v>
       </c>
       <c r="G471" t="n">
-        <v>173.3826</v>
+        <v>173.6382</v>
       </c>
     </row>
     <row r="472">
@@ -11715,7 +11715,7 @@
         <v>80</v>
       </c>
       <c r="G472" t="n">
-        <v>66.7351</v>
+        <v>65.7193</v>
       </c>
     </row>
     <row r="473">
@@ -11738,7 +11738,7 @@
         <v>100</v>
       </c>
       <c r="G473" t="n">
-        <v>77.0032</v>
+        <v>77.9971</v>
       </c>
     </row>
     <row r="474">
@@ -11761,7 +11761,7 @@
         <v>120</v>
       </c>
       <c r="G474" t="n">
-        <v>88.5964</v>
+        <v>89.3011</v>
       </c>
     </row>
     <row r="475">
@@ -11784,7 +11784,7 @@
         <v>140</v>
       </c>
       <c r="G475" t="n">
-        <v>100.9342</v>
+        <v>102.6481</v>
       </c>
     </row>
     <row r="476">
@@ -11807,7 +11807,7 @@
         <v>160</v>
       </c>
       <c r="G476" t="n">
-        <v>111.6425</v>
+        <v>114.0665</v>
       </c>
     </row>
     <row r="477">
@@ -11830,7 +11830,7 @@
         <v>180</v>
       </c>
       <c r="G477" t="n">
-        <v>124.9665</v>
+        <v>124.9186</v>
       </c>
     </row>
     <row r="478">
@@ -11853,7 +11853,7 @@
         <v>200</v>
       </c>
       <c r="G478" t="n">
-        <v>138.3763</v>
+        <v>136.0044</v>
       </c>
     </row>
     <row r="479">
@@ -11876,7 +11876,7 @@
         <v>220</v>
       </c>
       <c r="G479" t="n">
-        <v>146.4171</v>
+        <v>148.8206</v>
       </c>
     </row>
     <row r="480">
@@ -11899,7 +11899,7 @@
         <v>240</v>
       </c>
       <c r="G480" t="n">
-        <v>161.6662</v>
+        <v>159.4124</v>
       </c>
     </row>
     <row r="481">
@@ -11922,7 +11922,7 @@
         <v>260</v>
       </c>
       <c r="G481" t="n">
-        <v>171.6186</v>
+        <v>171.6556</v>
       </c>
     </row>
     <row r="482">
@@ -11945,7 +11945,7 @@
         <v>80</v>
       </c>
       <c r="G482" t="n">
-        <v>63.9397</v>
+        <v>63.2671</v>
       </c>
     </row>
     <row r="483">
@@ -11968,7 +11968,7 @@
         <v>100</v>
       </c>
       <c r="G483" t="n">
-        <v>78.3681</v>
+        <v>76.6622</v>
       </c>
     </row>
     <row r="484">
@@ -11991,7 +11991,7 @@
         <v>120</v>
       </c>
       <c r="G484" t="n">
-        <v>90.4322</v>
+        <v>89.1984</v>
       </c>
     </row>
     <row r="485">
@@ -12014,7 +12014,7 @@
         <v>140</v>
       </c>
       <c r="G485" t="n">
-        <v>100.4642</v>
+        <v>99.9271</v>
       </c>
     </row>
     <row r="486">
@@ -12037,7 +12037,7 @@
         <v>160</v>
       </c>
       <c r="G486" t="n">
-        <v>112.5675</v>
+        <v>111.2119</v>
       </c>
     </row>
     <row r="487">
@@ -12060,7 +12060,7 @@
         <v>180</v>
       </c>
       <c r="G487" t="n">
-        <v>123.908</v>
+        <v>125.2059</v>
       </c>
     </row>
     <row r="488">
@@ -12083,7 +12083,7 @@
         <v>200</v>
       </c>
       <c r="G488" t="n">
-        <v>137.6936</v>
+        <v>137.0895</v>
       </c>
     </row>
     <row r="489">
@@ -12106,7 +12106,7 @@
         <v>220</v>
       </c>
       <c r="G489" t="n">
-        <v>147.8681</v>
+        <v>148.4079</v>
       </c>
     </row>
     <row r="490">
@@ -12129,7 +12129,7 @@
         <v>240</v>
       </c>
       <c r="G490" t="n">
-        <v>161.3869</v>
+        <v>160.3491</v>
       </c>
     </row>
     <row r="491">
@@ -12152,7 +12152,7 @@
         <v>260</v>
       </c>
       <c r="G491" t="n">
-        <v>173.3908</v>
+        <v>172.8161</v>
       </c>
     </row>
     <row r="492">
@@ -12175,7 +12175,7 @@
         <v>80</v>
       </c>
       <c r="G492" t="n">
-        <v>64.1785</v>
+        <v>66.3276</v>
       </c>
     </row>
     <row r="493">
@@ -12198,7 +12198,7 @@
         <v>100</v>
       </c>
       <c r="G493" t="n">
-        <v>77.134</v>
+        <v>76.715</v>
       </c>
     </row>
     <row r="494">
@@ -12221,7 +12221,7 @@
         <v>120</v>
       </c>
       <c r="G494" t="n">
-        <v>87.073</v>
+        <v>88.1335</v>
       </c>
     </row>
     <row r="495">
@@ -12244,7 +12244,7 @@
         <v>140</v>
       </c>
       <c r="G495" t="n">
-        <v>99.7096</v>
+        <v>99.5427</v>
       </c>
     </row>
     <row r="496">
@@ -12267,7 +12267,7 @@
         <v>160</v>
       </c>
       <c r="G496" t="n">
-        <v>112.9999</v>
+        <v>111.7464</v>
       </c>
     </row>
     <row r="497">
@@ -12290,7 +12290,7 @@
         <v>180</v>
       </c>
       <c r="G497" t="n">
-        <v>124.8148</v>
+        <v>126.3569</v>
       </c>
     </row>
     <row r="498">
@@ -12313,7 +12313,7 @@
         <v>200</v>
       </c>
       <c r="G498" t="n">
-        <v>137.1198</v>
+        <v>138.9088</v>
       </c>
     </row>
     <row r="499">
@@ -12336,7 +12336,7 @@
         <v>220</v>
       </c>
       <c r="G499" t="n">
-        <v>150.7276</v>
+        <v>150.3421</v>
       </c>
     </row>
     <row r="500">
@@ -12359,7 +12359,7 @@
         <v>240</v>
       </c>
       <c r="G500" t="n">
-        <v>162.1077</v>
+        <v>161.5538</v>
       </c>
     </row>
     <row r="501">
@@ -12382,7 +12382,7 @@
         <v>260</v>
       </c>
       <c r="G501" t="n">
-        <v>174.3895</v>
+        <v>172.7355</v>
       </c>
     </row>
     <row r="502">
@@ -12405,7 +12405,7 @@
         <v>80</v>
       </c>
       <c r="G502" t="n">
-        <v>65.5769</v>
+        <v>63.7136</v>
       </c>
     </row>
     <row r="503">
@@ -12428,7 +12428,7 @@
         <v>100</v>
       </c>
       <c r="G503" t="n">
-        <v>76.2411</v>
+        <v>78.6432</v>
       </c>
     </row>
     <row r="504">
@@ -12451,7 +12451,7 @@
         <v>120</v>
       </c>
       <c r="G504" t="n">
-        <v>89.6964</v>
+        <v>89.2139</v>
       </c>
     </row>
     <row r="505">
@@ -12474,7 +12474,7 @@
         <v>140</v>
       </c>
       <c r="G505" t="n">
-        <v>102.2685</v>
+        <v>101.6406</v>
       </c>
     </row>
     <row r="506">
@@ -12497,7 +12497,7 @@
         <v>160</v>
       </c>
       <c r="G506" t="n">
-        <v>112.3994</v>
+        <v>112.763</v>
       </c>
     </row>
     <row r="507">
@@ -12520,7 +12520,7 @@
         <v>180</v>
       </c>
       <c r="G507" t="n">
-        <v>126.2151</v>
+        <v>125.2221</v>
       </c>
     </row>
     <row r="508">
@@ -12543,7 +12543,7 @@
         <v>200</v>
       </c>
       <c r="G508" t="n">
-        <v>136.596</v>
+        <v>137.2529</v>
       </c>
     </row>
     <row r="509">
@@ -12566,7 +12566,7 @@
         <v>220</v>
       </c>
       <c r="G509" t="n">
-        <v>148.2721</v>
+        <v>149.927</v>
       </c>
     </row>
     <row r="510">
@@ -12589,7 +12589,7 @@
         <v>240</v>
       </c>
       <c r="G510" t="n">
-        <v>159.8826</v>
+        <v>161.3797</v>
       </c>
     </row>
     <row r="511">
@@ -12612,7 +12612,7 @@
         <v>260</v>
       </c>
       <c r="G511" t="n">
-        <v>172.0789</v>
+        <v>173.028</v>
       </c>
     </row>
     <row r="512">
@@ -12635,7 +12635,7 @@
         <v>80</v>
       </c>
       <c r="G512" t="n">
-        <v>63.1247</v>
+        <v>63.5698</v>
       </c>
     </row>
     <row r="513">
@@ -12658,7 +12658,7 @@
         <v>100</v>
       </c>
       <c r="G513" t="n">
-        <v>75.7324</v>
+        <v>75.3476</v>
       </c>
     </row>
     <row r="514">
@@ -12681,7 +12681,7 @@
         <v>120</v>
       </c>
       <c r="G514" t="n">
-        <v>89.93</v>
+        <v>88.2413</v>
       </c>
     </row>
     <row r="515">
@@ -12704,7 +12704,7 @@
         <v>140</v>
       </c>
       <c r="G515" t="n">
-        <v>100.3649</v>
+        <v>101.9484</v>
       </c>
     </row>
     <row r="516">
@@ -12727,7 +12727,7 @@
         <v>160</v>
       </c>
       <c r="G516" t="n">
-        <v>113.5268</v>
+        <v>114.635</v>
       </c>
     </row>
     <row r="517">
@@ -12750,7 +12750,7 @@
         <v>180</v>
       </c>
       <c r="G517" t="n">
-        <v>124.9805</v>
+        <v>123.8763</v>
       </c>
     </row>
     <row r="518">
@@ -12773,7 +12773,7 @@
         <v>200</v>
       </c>
       <c r="G518" t="n">
-        <v>137.1314</v>
+        <v>138.358</v>
       </c>
     </row>
     <row r="519">
@@ -12796,7 +12796,7 @@
         <v>220</v>
       </c>
       <c r="G519" t="n">
-        <v>149.8165</v>
+        <v>149.457</v>
       </c>
     </row>
     <row r="520">
@@ -12819,7 +12819,7 @@
         <v>240</v>
       </c>
       <c r="G520" t="n">
-        <v>161.826</v>
+        <v>159.126</v>
       </c>
     </row>
     <row r="521">
@@ -12842,7 +12842,7 @@
         <v>260</v>
       </c>
       <c r="G521" t="n">
-        <v>172.5688</v>
+        <v>173.2339</v>
       </c>
     </row>
     <row r="522">
@@ -12865,7 +12865,7 @@
         <v>80</v>
       </c>
       <c r="G522" t="n">
-        <v>63.3243</v>
+        <v>65.2101</v>
       </c>
     </row>
     <row r="523">
@@ -12888,7 +12888,7 @@
         <v>100</v>
       </c>
       <c r="G523" t="n">
-        <v>75.4073</v>
+        <v>77.1308</v>
       </c>
     </row>
     <row r="524">
@@ -12911,7 +12911,7 @@
         <v>120</v>
       </c>
       <c r="G524" t="n">
-        <v>88.8679</v>
+        <v>90.0995</v>
       </c>
     </row>
     <row r="525">
@@ -12934,7 +12934,7 @@
         <v>140</v>
       </c>
       <c r="G525" t="n">
-        <v>101.938</v>
+        <v>100.8741</v>
       </c>
     </row>
     <row r="526">
@@ -12957,7 +12957,7 @@
         <v>160</v>
       </c>
       <c r="G526" t="n">
-        <v>113.6278</v>
+        <v>112.2299</v>
       </c>
     </row>
     <row r="527">
@@ -12980,7 +12980,7 @@
         <v>180</v>
       </c>
       <c r="G527" t="n">
-        <v>124.4888</v>
+        <v>122.9585</v>
       </c>
     </row>
     <row r="528">
@@ -13003,7 +13003,7 @@
         <v>200</v>
       </c>
       <c r="G528" t="n">
-        <v>138.4617</v>
+        <v>137.6844</v>
       </c>
     </row>
     <row r="529">
@@ -13026,7 +13026,7 @@
         <v>220</v>
       </c>
       <c r="G529" t="n">
-        <v>148.2538</v>
+        <v>148.0825</v>
       </c>
     </row>
     <row r="530">
@@ -13049,7 +13049,7 @@
         <v>240</v>
       </c>
       <c r="G530" t="n">
-        <v>160.7531</v>
+        <v>159.3864</v>
       </c>
     </row>
     <row r="531">
@@ -13072,7 +13072,7 @@
         <v>260</v>
       </c>
       <c r="G531" t="n">
-        <v>172.0826</v>
+        <v>173.0907</v>
       </c>
     </row>
     <row r="532">
@@ -13095,7 +13095,7 @@
         <v>80</v>
       </c>
       <c r="G532" t="n">
-        <v>63.47</v>
+        <v>65.588</v>
       </c>
     </row>
     <row r="533">
@@ -13118,7 +13118,7 @@
         <v>100</v>
       </c>
       <c r="G533" t="n">
-        <v>75.7141</v>
+        <v>76.3235</v>
       </c>
     </row>
     <row r="534">
@@ -13141,7 +13141,7 @@
         <v>120</v>
       </c>
       <c r="G534" t="n">
-        <v>88.3594</v>
+        <v>89.5616</v>
       </c>
     </row>
     <row r="535">
@@ -13164,7 +13164,7 @@
         <v>140</v>
       </c>
       <c r="G535" t="n">
-        <v>100.7941</v>
+        <v>100.136</v>
       </c>
     </row>
     <row r="536">
@@ -13187,7 +13187,7 @@
         <v>160</v>
       </c>
       <c r="G536" t="n">
-        <v>112.7901</v>
+        <v>112.1736</v>
       </c>
     </row>
     <row r="537">
@@ -13210,7 +13210,7 @@
         <v>180</v>
       </c>
       <c r="G537" t="n">
-        <v>124.3472</v>
+        <v>126.6373</v>
       </c>
     </row>
     <row r="538">
@@ -13233,7 +13233,7 @@
         <v>200</v>
       </c>
       <c r="G538" t="n">
-        <v>138.7779</v>
+        <v>135.955</v>
       </c>
     </row>
     <row r="539">
@@ -13256,7 +13256,7 @@
         <v>220</v>
       </c>
       <c r="G539" t="n">
-        <v>149.0485</v>
+        <v>149.5221</v>
       </c>
     </row>
     <row r="540">
@@ -13279,7 +13279,7 @@
         <v>240</v>
       </c>
       <c r="G540" t="n">
-        <v>162.6526</v>
+        <v>162.9173</v>
       </c>
     </row>
     <row r="541">
@@ -13302,7 +13302,7 @@
         <v>260</v>
       </c>
       <c r="G541" t="n">
-        <v>175.8381</v>
+        <v>174.7512</v>
       </c>
     </row>
   </sheetData>
